--- a/cashflow 2.xlsx
+++ b/cashflow 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlp\Documents\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE703E-128F-4807-A6EF-099CDA83E66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3780CC-865F-4429-9A56-3A4A79484511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{DA93664B-1C47-4CFC-BC2B-8CC3DE095223}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA9CCBE-3CFF-4B4A-B418-6B7BD7E1A6DB}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -762,97 +762,96 @@
         <v>2500</v>
       </c>
       <c r="D3" s="6">
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="E3" s="6">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F3" s="6">
-        <v>2200</v>
+        <v>2050</v>
       </c>
       <c r="G3" s="6">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H3" s="6">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I3" s="6">
+        <v>1800</v>
+      </c>
+      <c r="J3" s="6">
         <v>1900</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2000</v>
       </c>
       <c r="K3" s="6">
         <f>J3+100</f>
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:S3" si="1">K3+100</f>
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="S3" s="6">
         <f t="shared" si="1"/>
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="T3" s="6">
         <f t="shared" ref="T3" si="2">S3+100</f>
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="U3" s="6">
         <f t="shared" ref="U3" si="3">T3+100</f>
+        <v>3000</v>
+      </c>
+      <c r="V3" s="7">
         <v>3100</v>
       </c>
-      <c r="V3" s="7">
-        <f t="shared" ref="V3" si="4">U3*(1+0.05/12)</f>
+      <c r="W3" s="7">
+        <f t="shared" ref="W3:AB3" si="4">V3*(1+0.05/12)</f>
         <v>3112.9166666666665</v>
       </c>
-      <c r="W3" s="7">
-        <f t="shared" ref="W3:AB3" si="5">V3*(1+0.05/12)</f>
+      <c r="X3" s="7">
+        <f t="shared" si="4"/>
         <v>3125.8871527777774</v>
       </c>
-      <c r="X3" s="7">
-        <f t="shared" si="5"/>
+      <c r="Y3" s="7">
+        <f t="shared" si="4"/>
         <v>3138.9116825810179</v>
       </c>
-      <c r="Y3" s="7">
-        <f t="shared" si="5"/>
+      <c r="Z3" s="7">
+        <f t="shared" si="4"/>
         <v>3151.9904812584386</v>
       </c>
-      <c r="Z3" s="7">
-        <f t="shared" si="5"/>
+      <c r="AA3" s="7">
+        <f t="shared" si="4"/>
         <v>3165.1237749303486</v>
       </c>
-      <c r="AA3" s="7">
-        <f t="shared" si="5"/>
+      <c r="AB3" s="7">
+        <f t="shared" si="4"/>
         <v>3178.3117906592252</v>
-      </c>
-      <c r="AB3" s="7">
-        <f t="shared" si="5"/>
-        <v>3191.5547564536387</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
@@ -866,103 +865,103 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:E6" si="6">MIN(1,C4*(1+(D$3/C$3-1)*$B4))</f>
-        <v>0.88200000000000001</v>
+        <f t="shared" ref="D4:E6" si="5">MIN(1,C4*(1+(D$3/C$3-1)*$B4))</f>
+        <v>0.873</v>
       </c>
       <c r="E4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8451382978723404</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:AB4" si="6">MIN(1,E4*(1+(F$3/E$3-1)*$B4))</f>
+        <v>0.81632676499032875</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="6"/>
-        <v>0.86362500000000009</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:AB4" si="7">MIN(1,E4*(1+(F$3/E$3-1)*$B4))</f>
-        <v>0.84485054347826094</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.82564939476284593</v>
+        <v>0.78646115163702401</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.80599107583992102</v>
+        <f t="shared" si="6"/>
+        <v>0.74506845944560174</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.78584129894392296</v>
+        <f t="shared" si="6"/>
+        <v>0.76698223766458995</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.80652133312665764</v>
+        <f t="shared" si="6"/>
+        <v>0.78828729982193957</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.82668436645482402</v>
+        <f t="shared" si="6"/>
+        <v>0.8090317024488326</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.84636732756089117</v>
+        <f t="shared" si="6"/>
+        <v>0.8292574950100533</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.86560294864182052</v>
+        <f t="shared" si="6"/>
+        <v>0.84900172108172112</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.88442040404707756</v>
+        <f t="shared" si="6"/>
+        <v>0.8682972147426693</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.90284582913139177</v>
+        <f t="shared" si="6"/>
+        <v>0.88717324115011875</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.92090274571401964</v>
+        <f t="shared" si="6"/>
+        <v>0.90565601700741305</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.93861241390082761</v>
+        <f t="shared" si="6"/>
+        <v>0.92376913734756128</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.95599412526936156</v>
+        <f t="shared" si="6"/>
+        <v>0.94153392845039896</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.97306544893488578</v>
+        <f t="shared" si="6"/>
+        <v>0.95896974194022122</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="7"/>
-        <v>0.98984243943376304</v>
+        <f t="shared" si="6"/>
+        <v>0.97609420161772509</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>0.99292341199044443</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" si="7"/>
+      <c r="W4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W4" s="3">
-        <f t="shared" si="7"/>
+      <c r="X4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="X4" s="3">
-        <f t="shared" si="7"/>
+      <c r="Y4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="7"/>
+      <c r="Z4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="7"/>
+      <c r="AA4" s="3">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="AB4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -977,103 +976,103 @@
         <v>0.9</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.88200000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.873</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.86362500000000009</v>
+        <f t="shared" si="5"/>
+        <v>0.8451382978723404</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:AB5" si="8">MIN(1,E5*(1+(F$3/E$3-1)*$B5))</f>
-        <v>0.84485054347826094</v>
+        <f t="shared" ref="F5:AB5" si="7">MIN(1,E5*(1+(F$3/E$3-1)*$B5))</f>
+        <v>0.81632676499032875</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.82564939476284593</v>
+        <f t="shared" si="7"/>
+        <v>0.78646115163702401</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.80599107583992102</v>
+        <f t="shared" si="7"/>
+        <v>0.74506845944560174</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.78584129894392296</v>
+        <f t="shared" si="7"/>
+        <v>0.76698223766458995</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.80652133312665764</v>
+        <f t="shared" si="7"/>
+        <v>0.78828729982193957</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.82668436645482402</v>
+        <f t="shared" si="7"/>
+        <v>0.8090317024488326</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.84636732756089117</v>
+        <f t="shared" si="7"/>
+        <v>0.8292574950100533</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.86560294864182052</v>
+        <f t="shared" si="7"/>
+        <v>0.84900172108172112</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.88442040404707756</v>
+        <f t="shared" si="7"/>
+        <v>0.8682972147426693</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.90284582913139177</v>
+        <f t="shared" si="7"/>
+        <v>0.88717324115011875</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.92090274571401964</v>
+        <f t="shared" si="7"/>
+        <v>0.90565601700741305</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.93861241390082761</v>
+        <f t="shared" si="7"/>
+        <v>0.92376913734756128</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.95599412526936156</v>
+        <f t="shared" si="7"/>
+        <v>0.94153392845039896</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.97306544893488578</v>
+        <f t="shared" si="7"/>
+        <v>0.95896974194022122</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.98984243943376304</v>
+        <f t="shared" si="7"/>
+        <v>0.97609420161772509</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
+        <v>0.99292341199044443</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="8"/>
+      <c r="W5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" si="8"/>
+      <c r="X5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="X5" s="3">
-        <f t="shared" si="8"/>
+      <c r="Y5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="8"/>
+      <c r="Z5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="8"/>
+      <c r="AA5" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AB5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1088,103 +1087,103 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.9405</v>
+        <f t="shared" si="5"/>
+        <v>0.93574999999999997</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.93070312500000008</v>
+        <f t="shared" si="5"/>
+        <v>0.92081781914893612</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:AB6" si="9">MIN(1,E6*(1+(F$3/E$3-1)*$B6))</f>
-        <v>0.92058678668478267</v>
+        <f t="shared" ref="F6:AB6" si="8">MIN(1,E6*(1+(F$3/E$3-1)*$B6))</f>
+        <v>0.9051220608679883</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.91012557319972831</v>
+        <f t="shared" si="8"/>
+        <v>0.88856494999845193</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.89929074494735062</v>
+        <f t="shared" si="8"/>
+        <v>0.86518166184059797</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.8880496106355088</v>
+        <f t="shared" si="8"/>
+        <v>0.87790492157354794</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.89973447393334438</v>
+        <f t="shared" si="8"/>
+        <v>0.89009804548429161</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.91098115485751119</v>
+        <f t="shared" si="8"/>
+        <v>0.90180986187224277</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.9218261686058149</v>
+        <f t="shared" si="8"/>
+        <v>0.91308248514564572</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.93230146597633545</v>
+        <f t="shared" si="8"/>
+        <v>0.92395251473071294</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.94243517756303474</v>
+        <f t="shared" si="8"/>
+        <v>0.93445197512538003</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.95225221066264976</v>
+        <f t="shared" si="8"/>
+        <v>0.94460906181152549</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.96177473276927627</v>
+        <f t="shared" si="8"/>
+        <v>0.954448739538729</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.97102256673821163</v>
+        <f t="shared" si="8"/>
+        <v>0.96399322693411627</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.98001351643023216</v>
+        <f t="shared" si="8"/>
+        <v>0.97326239257771352</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.98876363711264492</v>
+        <f t="shared" si="8"/>
+        <v>0.98227408139787753</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.99728746157051251</v>
+        <f t="shared" si="8"/>
+        <v>0.99104438569607278</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
+        <v>0.99958787177965958</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="9"/>
+      <c r="W6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" si="9"/>
+      <c r="X6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X6" s="3">
-        <f t="shared" si="9"/>
+      <c r="Y6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="9"/>
+      <c r="AA6" s="3">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AB6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -1211,107 +1210,107 @@
         <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>19320</v>
+        <v>19128</v>
       </c>
       <c r="D10" s="1">
         <f>C10*D3/C3+D57</f>
-        <v>18547.2</v>
+        <v>17180.32</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:AB10" si="10">D10*E3/D3+E57</f>
-        <v>16774.400000000001</v>
+        <f t="shared" ref="E10:AB10" si="9">D10*E3/D3+E57</f>
+        <v>16083.703829787233</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="10"/>
-        <v>16045.078260869564</v>
+        <f t="shared" si="9"/>
+        <v>14987.087659574468</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="10"/>
-        <v>15315.756521739129</v>
+        <f t="shared" si="9"/>
+        <v>13890.471489361702</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="10"/>
-        <v>14586.434782608694</v>
+        <f t="shared" si="9"/>
+        <v>12428.31659574468</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="10"/>
-        <v>15661.616723741627</v>
+        <f t="shared" si="9"/>
+        <v>15760.430738901672</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="10"/>
-        <v>16556.996535731858</v>
+        <f t="shared" si="9"/>
+        <v>16593.670750811129</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="10"/>
-        <v>17365.665835914366</v>
+        <f t="shared" si="9"/>
+        <v>17356.4504119823</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="10"/>
-        <v>18104.106345038028</v>
+        <f t="shared" si="9"/>
+        <v>18061.703975908906</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="10"/>
-        <v>18788.069332005911</v>
+        <f t="shared" si="9"/>
+        <v>18722.62052580182</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="10"/>
-        <v>19425.227392543839</v>
+        <f t="shared" si="9"/>
+        <v>19344.30884090787</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="10"/>
-        <v>20024.55474852378</v>
+        <f t="shared" si="9"/>
+        <v>19933.992759490262</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="10"/>
-        <v>20595.137759675868</v>
+        <f t="shared" si="9"/>
+        <v>20499.681466632315</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="10"/>
-        <v>21141.467164795842</v>
+        <f t="shared" si="9"/>
+        <v>21044.282276597045</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="10"/>
-        <v>21668.3884592961</v>
+        <f t="shared" si="9"/>
+        <v>21571.856683935046</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="10"/>
-        <v>22180.847284261086</v>
+        <f t="shared" si="9"/>
+        <v>22087.102099307078</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="10"/>
-        <v>22679.883846791854</v>
+        <f t="shared" si="9"/>
+        <v>22590.139293998334</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="10"/>
-        <v>23168.099357115032</v>
+        <f t="shared" si="9"/>
+        <v>23083.222960375238</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="10"/>
-        <v>22986.41130270041</v>
+        <f t="shared" si="9"/>
+        <v>23568.167932661803</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="10"/>
-        <v>22868.74691860647</v>
+        <f t="shared" si="9"/>
+        <v>23369.263910372534</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="10"/>
-        <v>22799.528037472086</v>
+        <f t="shared" si="9"/>
+        <v>23238.717216333294</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="10"/>
-        <v>22767.02808818312</v>
+        <f t="shared" si="9"/>
+        <v>23159.864177208907</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="10"/>
-        <v>22762.303550400153</v>
+        <f t="shared" si="9"/>
+        <v>23120.038762999418</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="10"/>
-        <v>22778.818202650284</v>
+        <f t="shared" si="9"/>
+        <v>23109.928318225509</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="10"/>
-        <v>22811.654289892296</v>
+        <f t="shared" si="9"/>
+        <v>23122.5287909828</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
@@ -1319,107 +1318,107 @@
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <v>8800</v>
+        <v>8711</v>
       </c>
       <c r="D11" s="1">
         <f>C11*(1+D70/12)+D58</f>
-        <v>8918.6666666666661</v>
+        <v>8829.0733333333319</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:AB11" si="11">D11*(1+E70/12)+E58</f>
-        <v>9038.1244444444437</v>
+        <f t="shared" ref="E11:AB11" si="10">D11*(1+E70/12)+E58</f>
+        <v>8947.9338222222195</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="11"/>
-        <v>9158.3786074074069</v>
+        <f t="shared" si="10"/>
+        <v>9067.5867143703672</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="11"/>
-        <v>9244.4344647901216</v>
+        <f t="shared" si="10"/>
+        <v>9153.0372924661697</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="11"/>
-        <v>9331.0640278887222</v>
+        <f t="shared" si="10"/>
+        <v>9239.0575410826095</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="11"/>
-        <v>9418.2711214079791</v>
+        <f t="shared" si="10"/>
+        <v>9325.6512580231592</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="11"/>
-        <v>9506.0595955506978</v>
+        <f t="shared" si="10"/>
+        <v>9412.8222664099794</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="11"/>
-        <v>9594.4333261877018</v>
+        <f t="shared" si="10"/>
+        <v>9500.5744148527119</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="11"/>
-        <v>9683.3962150289517</v>
+        <f t="shared" si="10"/>
+        <v>9588.9115776183953</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="11"/>
-        <v>9772.9521897958111</v>
+        <f t="shared" si="10"/>
+        <v>9677.8376548025171</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="11"/>
-        <v>9863.1052043944492</v>
+        <f t="shared" si="10"/>
+        <v>9767.3565725011995</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="11"/>
-        <v>9953.8592390904123</v>
+        <f t="shared" si="10"/>
+        <v>9857.4722829845396</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="11"/>
-        <v>10061.808066082833</v>
+        <f t="shared" si="10"/>
+        <v>9964.6178853427446</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="11"/>
-        <v>10170.656466633523</v>
+        <f t="shared" si="10"/>
+        <v>10072.656367720601</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="11"/>
-        <v>10243.411937188803</v>
+        <f t="shared" si="10"/>
+        <v>10144.59517078494</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="11"/>
-        <v>10316.773703332043</v>
+        <f t="shared" si="10"/>
+        <v>10217.133463874814</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="11"/>
-        <v>10390.746817526477</v>
+        <f t="shared" si="10"/>
+        <v>10290.276242740438</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="11"/>
-        <v>10465.336374339196</v>
+        <f t="shared" si="10"/>
+        <v>10364.028544763274</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="11"/>
-        <v>10540.547510792023</v>
+        <f t="shared" si="10"/>
+        <v>10438.395449302967</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="11"/>
-        <v>10616.38540671529</v>
+        <f t="shared" si="10"/>
+        <v>10513.382078047158</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="11"/>
-        <v>10692.855285104584</v>
+        <f t="shared" si="10"/>
+        <v>10588.993595364218</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="11"/>
-        <v>10769.962412480456</v>
+        <f t="shared" si="10"/>
+        <v>10665.23520865892</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="11"/>
-        <v>10847.712099251126</v>
+        <f t="shared" si="10"/>
+        <v>10742.112168731077</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="11"/>
-        <v>10926.109700078219</v>
+        <f t="shared" si="10"/>
+        <v>10819.62977013717</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="11"/>
-        <v>11005.160614245537</v>
+        <f t="shared" si="10"/>
+        <v>10897.793351554979</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
@@ -1427,106 +1426,106 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>6689</v>
+        <v>6684</v>
       </c>
       <c r="D12" s="10">
         <f>D73</f>
         <v>6698</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:AB12" si="12">E73</f>
+        <f t="shared" ref="E12:AB12" si="11">E73</f>
         <v>6838.820010419824</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6865.2914328055767</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7018.6989914175401</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7173.5622025877719</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7213.9399556666222</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7331.261527392865</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7449.6963392199787</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7332.9781474781721</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7443.5069764857872</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7555.0845906651575</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7355.5932971901293</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7529.578177147454</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7705.2139636044421</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7534.2222134623371</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7743.4220935191897</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7954.6070279198411</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8138.8344610201057</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8264.4494234958056</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8391.2563203399241</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8399.7300964414062</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8609.2121824250644</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8820.6820005461268</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8905.5800866990485</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9038.8373528437587</v>
       </c>
     </row>
@@ -1536,107 +1535,107 @@
       </c>
       <c r="C13" s="6">
         <f>C14-SUM(C10:C12)</f>
-        <v>3698</v>
+        <v>4161</v>
       </c>
       <c r="D13" s="1">
         <f>C13*(1+D$71/12)+D$54+D$60</f>
-        <v>3456.8992579893475</v>
+        <v>4717.2034246560142</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:AB13" si="13">D13*(1+E$71/12)+E$54+E$60</f>
-        <v>4215.3966814086771</v>
+        <f t="shared" ref="E13:AB13" si="12">D13*(1+E$71/12)+E$54+E$60</f>
+        <v>4473.8703521659072</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="13"/>
-        <v>4090.8430671543624</v>
+        <f t="shared" si="12"/>
+        <v>4346.0193020693823</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="13"/>
-        <v>3874.3969091624485</v>
+        <f t="shared" si="12"/>
+        <v>4126.3767550506018</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="13"/>
-        <v>3657.5900075738818</v>
+        <f t="shared" si="12"/>
+        <v>3906.5511725759725</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="13"/>
-        <v>1751.8730039213262</v>
+        <f t="shared" si="12"/>
+        <v>1201.4606288028253</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="13"/>
-        <v>1499.8386080655887</v>
+        <f t="shared" si="12"/>
+        <v>1060.9313303341671</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="13"/>
-        <v>1337.6488764387102</v>
+        <f t="shared" si="12"/>
+        <v>988.51688150848611</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="13"/>
-        <v>1480.7810682161698</v>
+        <f t="shared" si="12"/>
+        <v>1204.3164199791045</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="13"/>
-        <v>1446.2522566973969</v>
+        <f t="shared" si="12"/>
+        <v>1228.5368910404154</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="13"/>
-        <v>1452.4294784673555</v>
+        <f t="shared" si="12"/>
+        <v>1282.9528446227905</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="13"/>
-        <v>1801.0872397332939</v>
+        <f t="shared" si="12"/>
+        <v>1671.5748862964547</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="13"/>
-        <v>1795.2990523390988</v>
+        <f t="shared" si="12"/>
+        <v>1698.6730116224614</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="13"/>
-        <v>1804.8933171215353</v>
+        <f t="shared" si="12"/>
+        <v>1736.2858429167645</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="13"/>
-        <v>2210.102410509066</v>
+        <f t="shared" si="12"/>
+        <v>2165.6587425840744</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="13"/>
-        <v>2239.4889004148554</v>
+        <f t="shared" si="12"/>
+        <v>2215.4664922412503</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="13"/>
-        <v>2273.3324167401588</v>
+        <f t="shared" si="12"/>
+        <v>2267.3913890519407</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="13"/>
-        <v>2338.1541078682553</v>
+        <f t="shared" si="12"/>
+        <v>2348.4197218455934</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="13"/>
-        <v>2473.8855855710713</v>
+        <f t="shared" si="12"/>
+        <v>2488.4852837935114</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="13"/>
-        <v>2545.0625785226471</v>
+        <f t="shared" si="12"/>
+        <v>2641.276495992463</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="13"/>
-        <v>2686.9587936986627</v>
+        <f t="shared" si="12"/>
+        <v>2844.5453043214802</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="13"/>
-        <v>2591.1562547411163</v>
+        <f t="shared" si="12"/>
+        <v>2794.8179998753826</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="13"/>
-        <v>2467.2832169239396</v>
+        <f t="shared" si="12"/>
+        <v>2705.6930767643316</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="13"/>
-        <v>2450.5231737207473</v>
+        <f t="shared" si="12"/>
+        <v>2715.1912995067696</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="13"/>
-        <v>2369.9289735396396</v>
+        <f t="shared" si="12"/>
+        <v>2654.3907934186636</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
@@ -1644,107 +1643,107 @@
         <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>38507</v>
+        <v>38684</v>
       </c>
       <c r="D14" s="12">
         <f>SUM(D10:D13)</f>
-        <v>37620.765924656014</v>
+        <v>37424.596757989348</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" ref="E14:AB14" si="14">SUM(E10:E13)</f>
-        <v>36866.741136272947</v>
+        <f t="shared" ref="E14:AB14" si="13">SUM(E10:E13)</f>
+        <v>36344.328014595179</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="14"/>
-        <v>36159.591368236914</v>
+        <f t="shared" si="13"/>
+        <v>35265.985108819797</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="14"/>
-        <v>35453.286887109236</v>
+        <f t="shared" si="13"/>
+        <v>34188.584528296007</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="14"/>
-        <v>34748.651020659068</v>
+        <f t="shared" si="13"/>
+        <v>32747.487511991032</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="14"/>
-        <v>34045.700804737557</v>
+        <f t="shared" si="13"/>
+        <v>33501.482581394281</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="14"/>
-        <v>34894.156266741011</v>
+        <f t="shared" si="13"/>
+        <v>34398.685874948147</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="14"/>
-        <v>35747.444377760752</v>
+        <f t="shared" si="13"/>
+        <v>35295.238047563471</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="14"/>
-        <v>36601.261775761326</v>
+        <f t="shared" si="13"/>
+        <v>36187.910120984576</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="14"/>
-        <v>37450.780754984909</v>
+        <f t="shared" si="13"/>
+        <v>37072.502048130533</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" si="14"/>
-        <v>38295.8466660708</v>
+        <f t="shared" si="13"/>
+        <v>37949.702848697023</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="14"/>
-        <v>39135.094524537613</v>
+        <f t="shared" si="13"/>
+        <v>38818.633225961385</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="14"/>
-        <v>39981.823055245251</v>
+        <f t="shared" si="13"/>
+        <v>39692.550540744982</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" si="14"/>
-        <v>40822.230912155341</v>
+        <f t="shared" si="13"/>
+        <v>40558.438450838861</v>
       </c>
       <c r="R14" s="12">
-        <f t="shared" si="14"/>
-        <v>41656.125020456311</v>
+        <f t="shared" si="13"/>
+        <v>41416.332810766398</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="14"/>
-        <v>42480.53198152718</v>
+        <f t="shared" si="13"/>
+        <v>42263.124148942334</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="14"/>
-        <v>43298.570108978332</v>
+        <f t="shared" si="13"/>
+        <v>43102.413953710551</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="14"/>
-        <v>44110.424300342587</v>
+        <f t="shared" si="13"/>
+        <v>43934.50568800421</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="14"/>
-        <v>44265.29382255931</v>
+        <f t="shared" si="13"/>
+        <v>44759.498089254084</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="14"/>
-        <v>44421.451224184326</v>
+        <f t="shared" si="13"/>
+        <v>44915.178804752082</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="14"/>
-        <v>44579.072212716739</v>
+        <f t="shared" si="13"/>
+        <v>45071.986212460397</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="14"/>
-        <v>44737.358937829755</v>
+        <f t="shared" si="13"/>
+        <v>45229.129568168275</v>
       </c>
       <c r="Z14" s="12">
-        <f t="shared" si="14"/>
-        <v>44897.980867121347</v>
+        <f t="shared" si="13"/>
+        <v>45388.526009040957</v>
       </c>
       <c r="AA14" s="12">
-        <f t="shared" si="14"/>
-        <v>45061.031163148298</v>
+        <f t="shared" si="13"/>
+        <v>45550.329474568498</v>
       </c>
       <c r="AB14" s="12">
-        <f t="shared" si="14"/>
-        <v>45225.581230521231</v>
+        <f t="shared" si="13"/>
+        <v>45713.550288800201</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
@@ -1758,107 +1757,107 @@
       </c>
       <c r="C17" s="1">
         <f>(0.8*C10)+(0.2*C10*C4)</f>
-        <v>18933.599999999999</v>
+        <v>18745.440000000002</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:AB17" si="15">(0.8*D10)+(0.2*D10*D4)</f>
-        <v>18109.486080000002</v>
+        <f t="shared" ref="D17:AB17" si="14">(0.8*D10)+(0.2*D10*D4)</f>
+        <v>16743.939872000003</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="15"/>
-        <v>16316.878240000004</v>
+        <f t="shared" si="14"/>
+        <v>15585.553879467632</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="15"/>
-        <v>15547.201226465029</v>
+        <f t="shared" si="14"/>
+        <v>14436.542284812956</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="15"/>
-        <v>14781.694237893109</v>
+        <f t="shared" si="14"/>
+        <v>13297.240432350292</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="15"/>
-        <v>14020.455078707681</v>
+        <f t="shared" si="14"/>
+        <v>11794.642616494484</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="15"/>
-        <v>14990.802424942698</v>
+        <f t="shared" si="14"/>
+        <v>15025.938678057457</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="15"/>
-        <v>15916.31141229987</v>
+        <f t="shared" si="14"/>
+        <v>15891.052582707143</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="15"/>
-        <v>16763.717560657304</v>
+        <f t="shared" si="14"/>
+        <v>16693.544054640795</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="15"/>
-        <v>17547.829897056024</v>
+        <f t="shared" si="14"/>
+        <v>17444.923859662194</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="15"/>
-        <v>18283.057108218985</v>
+        <f t="shared" si="14"/>
+        <v>18157.203830554598</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="15"/>
-        <v>18976.195405879065</v>
+        <f t="shared" si="14"/>
+        <v>18834.768970262754</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="15"/>
-        <v>19635.460945802606</v>
+        <f t="shared" si="14"/>
+        <v>19484.175200692207</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="15"/>
-        <v>20269.333989989493</v>
+        <f t="shared" si="14"/>
+        <v>20112.877146704031</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="15"/>
-        <v>20881.902437627497</v>
+        <f t="shared" si="14"/>
+        <v>20723.437518227762</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="15"/>
-        <v>21477.681181665183</v>
+        <f t="shared" si="14"/>
+        <v>21319.61234066691</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="15"/>
-        <v>22061.361051492</v>
+        <f t="shared" si="14"/>
+        <v>21905.854199521629</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="15"/>
-        <v>22633.809388030051</v>
+        <f t="shared" si="14"/>
+        <v>22482.132230920368</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="15"/>
-        <v>23168.099357115032</v>
+        <f t="shared" si="14"/>
+        <v>23050.552868610579</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="15"/>
-        <v>22986.411302700413</v>
+        <f t="shared" si="14"/>
+        <v>23568.167932661803</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="15"/>
-        <v>22868.74691860647</v>
+        <f t="shared" si="14"/>
+        <v>23369.263910372534</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="15"/>
-        <v>22799.528037472086</v>
+        <f t="shared" si="14"/>
+        <v>23238.717216333294</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="15"/>
-        <v>22767.02808818312</v>
+        <f t="shared" si="14"/>
+        <v>23159.864177208907</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="15"/>
-        <v>22762.303550400153</v>
+        <f t="shared" si="14"/>
+        <v>23120.038762999422</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="15"/>
-        <v>22778.818202650287</v>
+        <f t="shared" si="14"/>
+        <v>23109.928318225509</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="15"/>
-        <v>22811.6542898923</v>
+        <f t="shared" si="14"/>
+        <v>23122.5287909828</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
@@ -1867,107 +1866,107 @@
       </c>
       <c r="C18" s="1">
         <f>C11*C4</f>
-        <v>7920</v>
+        <v>7839.9000000000005</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:AB18" si="16">D11*D4</f>
-        <v>7866.2639999999992</v>
+        <f t="shared" ref="D18:AB18" si="15">D11*D4</f>
+        <v>7707.7810199999985</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="16"/>
-        <v>7805.5502233333336</v>
+        <f t="shared" si="15"/>
+        <v>7562.241559987232</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="16"/>
-        <v>7737.461143847826</v>
+        <f t="shared" si="15"/>
+        <v>7402.1137288112459</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="16"/>
-        <v>7632.6617207787576</v>
+        <f t="shared" si="15"/>
+        <v>7198.5082500095723</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="16"/>
-        <v>7520.7543345692184</v>
+        <f t="shared" si="15"/>
+        <v>6883.7303688636894</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="16"/>
-        <v>7401.2664118532839</v>
+        <f t="shared" si="15"/>
+        <v>7152.6088695582011</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="16"/>
-        <v>7666.8398577850048</v>
+        <f t="shared" si="15"/>
+        <v>7420.0082480921519</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="16"/>
-        <v>7931.5680357525298</v>
+        <f t="shared" si="15"/>
+        <v>7686.2658930901107</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="16"/>
-        <v>8195.7101762273032</v>
+        <f t="shared" si="15"/>
+        <v>7951.676794728729</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="16"/>
-        <v>8459.4962324227909</v>
+        <f t="shared" si="15"/>
+        <v>8216.5008252768239</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="16"/>
-        <v>8723.1314900293728</v>
+        <f t="shared" si="15"/>
+        <v>8480.968507301297</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="16"/>
-        <v>8986.8002977737469</v>
+        <f t="shared" si="15"/>
+        <v>8745.2856348428541</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="16"/>
-        <v>9265.9466749031508</v>
+        <f t="shared" si="15"/>
+        <v>9024.5161450403411</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="16"/>
-        <v>9546.3044171029542</v>
+        <f t="shared" si="15"/>
+        <v>9304.809083607679</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="16"/>
-        <v>9792.6416346665465</v>
+        <f t="shared" si="15"/>
+        <v>9551.4805436880906</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="16"/>
-        <v>10038.896035192418</v>
+        <f t="shared" si="15"/>
+        <v>9797.9218412208284</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="16"/>
-        <v>10285.202177399018</v>
+        <f t="shared" si="15"/>
+        <v>10044.278973583572</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="16"/>
-        <v>10465.336374339196</v>
+        <f t="shared" si="15"/>
+        <v>10290.686584632711</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="16"/>
-        <v>10540.547510792023</v>
+        <f t="shared" si="15"/>
+        <v>10438.395449302967</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="16"/>
-        <v>10616.38540671529</v>
+        <f t="shared" si="15"/>
+        <v>10513.382078047158</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="16"/>
-        <v>10692.855285104584</v>
+        <f t="shared" si="15"/>
+        <v>10588.993595364218</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="16"/>
-        <v>10769.962412480456</v>
+        <f t="shared" si="15"/>
+        <v>10665.23520865892</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="16"/>
-        <v>10847.712099251126</v>
+        <f t="shared" si="15"/>
+        <v>10742.112168731077</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="16"/>
-        <v>10926.109700078219</v>
+        <f t="shared" si="15"/>
+        <v>10819.62977013717</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="16"/>
-        <v>11005.160614245537</v>
+        <f t="shared" si="15"/>
+        <v>10897.793351554979</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
@@ -1976,106 +1975,106 @@
       </c>
       <c r="C19" s="1">
         <f>C12*C6</f>
-        <v>6354.5499999999993</v>
+        <v>6349.7999999999993</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:AB19" si="17">D12*D6</f>
-        <v>6299.4690000000001</v>
+        <f t="shared" ref="D19:AB19" si="16">D12*D6</f>
+        <v>6267.6534999999994</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="17"/>
-        <v>6364.9111550102634</v>
+        <f t="shared" si="16"/>
+        <v>6297.3073275468869</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="17"/>
-        <v>6320.0965797810532</v>
+        <f t="shared" si="16"/>
+        <v>6213.9267301203281</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="17"/>
-        <v>6387.8974426802433</v>
+        <f t="shared" si="16"/>
+        <v>6236.5699183631114</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="17"/>
-        <v>6451.1180970913147</v>
+        <f t="shared" si="16"/>
+        <v>6206.4344677517893</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="17"/>
-        <v>6406.3365687776832</v>
+        <f t="shared" si="16"/>
+        <v>6333.1533910157896</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="17"/>
-        <v>6596.1887336165864</v>
+        <f t="shared" si="16"/>
+        <v>6525.5415564665718</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="17"/>
-        <v>6786.5329744403898</v>
+        <f t="shared" si="16"/>
+        <v>6718.209626662122</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="17"/>
-        <v>6759.7311501599697</v>
+        <f t="shared" si="16"/>
+        <v>6695.6139104180829</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="17"/>
-        <v>6939.5924661827794</v>
+        <f t="shared" si="16"/>
+        <v>6877.446989339649</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="17"/>
-        <v>7120.1774877072658</v>
+        <f t="shared" si="16"/>
+        <v>7059.8637179863799</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="17"/>
-        <v>7004.3799779846695</v>
+        <f t="shared" si="16"/>
+        <v>6948.1600835259133</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="17"/>
-        <v>7241.7580391913671</v>
+        <f t="shared" si="16"/>
+        <v>7186.5964004367079</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="17"/>
-        <v>7481.9366402062942</v>
+        <f t="shared" si="16"/>
+        <v>7427.7740729928582</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="17"/>
-        <v>7383.6396049819923</v>
+        <f t="shared" si="16"/>
+        <v>7332.7751376865108</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="17"/>
-        <v>7656.4141928864456</v>
+        <f t="shared" si="16"/>
+        <v>7606.1628237875921</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="17"/>
-        <v>7933.029850665137</v>
+        <f t="shared" si="16"/>
+        <v>7883.3686354384827</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="17"/>
-        <v>8138.8344610201057</v>
+        <f t="shared" si="16"/>
+        <v>8135.4802176580397</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8264.4494234958056</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8391.2563203399241</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8399.7300964414062</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8609.2121824250644</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8820.6820005461268</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8905.5800866990485</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9038.8373528437587</v>
       </c>
     </row>
@@ -2085,107 +2084,107 @@
       </c>
       <c r="C20">
         <f>C13</f>
-        <v>3698</v>
+        <v>4161</v>
       </c>
       <c r="D20" s="1">
         <f>D13</f>
-        <v>3456.8992579893475</v>
+        <v>4717.2034246560142</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:AB20" si="18">D20*(1+E71/12)+E54+E60</f>
-        <v>4215.3966814086771</v>
+        <f t="shared" ref="E20:AB20" si="17">D20*(1+E71/12)+E54+E60</f>
+        <v>4473.8703521659072</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="18"/>
-        <v>4090.8430671543624</v>
+        <f t="shared" si="17"/>
+        <v>4346.0193020693823</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="18"/>
-        <v>3874.3969091624485</v>
+        <f t="shared" si="17"/>
+        <v>4126.3767550506018</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="18"/>
-        <v>3657.5900075738818</v>
+        <f t="shared" si="17"/>
+        <v>3906.5511725759725</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="18"/>
-        <v>1751.8730039213262</v>
+        <f t="shared" si="17"/>
+        <v>1201.4606288028253</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="18"/>
-        <v>1499.8386080655887</v>
+        <f t="shared" si="17"/>
+        <v>1060.9313303341671</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="18"/>
-        <v>1337.6488764387102</v>
+        <f t="shared" si="17"/>
+        <v>988.51688150848611</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="18"/>
-        <v>1480.7810682161698</v>
+        <f t="shared" si="17"/>
+        <v>1204.3164199791045</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="18"/>
-        <v>1446.2522566973969</v>
+        <f t="shared" si="17"/>
+        <v>1228.5368910404154</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="18"/>
-        <v>1452.4294784673555</v>
+        <f t="shared" si="17"/>
+        <v>1282.9528446227905</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="18"/>
-        <v>1801.0872397332939</v>
+        <f t="shared" si="17"/>
+        <v>1671.5748862964547</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="18"/>
-        <v>1795.2990523390988</v>
+        <f t="shared" si="17"/>
+        <v>1698.6730116224614</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="18"/>
-        <v>1804.8933171215353</v>
+        <f t="shared" si="17"/>
+        <v>1736.2858429167645</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="18"/>
-        <v>2210.102410509066</v>
+        <f t="shared" si="17"/>
+        <v>2165.6587425840744</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="18"/>
-        <v>2239.4889004148554</v>
+        <f t="shared" si="17"/>
+        <v>2215.4664922412503</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="18"/>
-        <v>2273.3324167401588</v>
+        <f t="shared" si="17"/>
+        <v>2267.3913890519407</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="18"/>
-        <v>2338.1541078682553</v>
+        <f t="shared" si="17"/>
+        <v>2348.4197218455934</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="18"/>
-        <v>2473.8855855710713</v>
+        <f t="shared" si="17"/>
+        <v>2488.4852837935114</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="18"/>
-        <v>2545.0625785226471</v>
+        <f t="shared" si="17"/>
+        <v>2641.276495992463</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="18"/>
-        <v>2686.9587936986627</v>
+        <f t="shared" si="17"/>
+        <v>2844.5453043214802</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="18"/>
-        <v>2591.1562547411163</v>
+        <f t="shared" si="17"/>
+        <v>2794.8179998753826</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="18"/>
-        <v>2467.2832169239396</v>
+        <f t="shared" si="17"/>
+        <v>2705.6930767643316</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="18"/>
-        <v>2450.5231737207473</v>
+        <f t="shared" si="17"/>
+        <v>2715.1912995067696</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="18"/>
-        <v>2369.9289735396396</v>
+        <f t="shared" si="17"/>
+        <v>2654.3907934186636</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
@@ -2194,107 +2193,107 @@
       </c>
       <c r="C21" s="1">
         <f>SUM(C17:C20)</f>
-        <v>36906.149999999994</v>
+        <v>37096.14</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:AB21" si="19">SUM(D17:D20)</f>
-        <v>35732.118337989348</v>
+        <f t="shared" ref="D21:AB21" si="18">SUM(D17:D20)</f>
+        <v>35436.577816656019</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="19"/>
-        <v>34702.73629975228</v>
+        <f t="shared" si="18"/>
+        <v>33918.973119167655</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="19"/>
-        <v>33695.602017248275</v>
+        <f t="shared" si="18"/>
+        <v>32398.602045813917</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="19"/>
-        <v>32676.650310514557</v>
+        <f t="shared" si="18"/>
+        <v>30858.69535577358</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="19"/>
-        <v>31649.917517942096</v>
+        <f t="shared" si="18"/>
+        <v>28791.358625685934</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="19"/>
-        <v>30550.278409494989</v>
+        <f t="shared" si="18"/>
+        <v>29713.161567434272</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="19"/>
-        <v>31679.178611767049</v>
+        <f t="shared" si="18"/>
+        <v>30897.533717600032</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="19"/>
-        <v>32819.467447288931</v>
+        <f t="shared" si="18"/>
+        <v>32086.536455901518</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="19"/>
-        <v>33984.052291659471</v>
+        <f t="shared" si="18"/>
+        <v>33296.530984788114</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="19"/>
-        <v>35128.398063521956</v>
+        <f t="shared" si="18"/>
+        <v>34479.688536211484</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="19"/>
-        <v>36271.93386208306</v>
+        <f t="shared" si="18"/>
+        <v>35658.554040173221</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="19"/>
-        <v>37427.728461294311</v>
+        <f t="shared" si="18"/>
+        <v>36849.195805357427</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="19"/>
-        <v>38572.337756423105</v>
+        <f t="shared" si="18"/>
+        <v>38022.662703803544</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="19"/>
-        <v>39715.036812058279</v>
+        <f t="shared" si="18"/>
+        <v>39192.306517745063</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="19"/>
-        <v>40864.06483182279</v>
+        <f t="shared" si="18"/>
+        <v>40369.526764625589</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="19"/>
-        <v>41996.160179985724</v>
+        <f t="shared" si="18"/>
+        <v>41525.405356771298</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="19"/>
-        <v>43125.373832834368</v>
+        <f t="shared" si="18"/>
+        <v>42677.171228994361</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="19"/>
-        <v>44110.424300342587</v>
+        <f t="shared" si="18"/>
+        <v>43825.139392746925</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="19"/>
-        <v>44265.29382255931</v>
+        <f t="shared" si="18"/>
+        <v>44759.498089254084</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="19"/>
-        <v>44421.451224184326</v>
+        <f t="shared" si="18"/>
+        <v>44915.178804752082</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="19"/>
-        <v>44579.072212716739</v>
+        <f t="shared" si="18"/>
+        <v>45071.986212460397</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="19"/>
-        <v>44737.358937829755</v>
+        <f t="shared" si="18"/>
+        <v>45229.129568168275</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="19"/>
-        <v>44897.980867121347</v>
+        <f t="shared" si="18"/>
+        <v>45388.526009040957</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="19"/>
-        <v>45061.031163148305</v>
+        <f t="shared" si="18"/>
+        <v>45550.329474568498</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="19"/>
-        <v>45225.581230521231</v>
+        <f t="shared" si="18"/>
+        <v>45713.550288800201</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
@@ -2366,99 +2365,99 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:AB24" si="20">MAX(0,-E20)/E21</f>
+        <f t="shared" ref="E24:AB24" si="19">MAX(0,-E20)/E21</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2472,99 +2471,99 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:AB25" si="21">MAX(0,1000-E13)/E21</f>
+        <f t="shared" ref="E25:AB25" si="20">MAX(0,1000-E13)/E21</f>
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
+        <v>3.5787965171298064E-4</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="21"/>
+      <c r="M25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="21"/>
+      <c r="N25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N25" s="8">
-        <f t="shared" si="21"/>
+      <c r="O25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O25" s="8">
-        <f t="shared" si="21"/>
+      <c r="P25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="21"/>
+      <c r="Q25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="21"/>
+      <c r="R25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R25" s="8">
-        <f t="shared" si="21"/>
+      <c r="S25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S25" s="8">
-        <f t="shared" si="21"/>
+      <c r="T25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T25" s="8">
-        <f t="shared" si="21"/>
+      <c r="U25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U25" s="8">
-        <f t="shared" si="21"/>
+      <c r="V25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V25" s="8">
-        <f t="shared" si="21"/>
+      <c r="W25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W25" s="8">
-        <f t="shared" si="21"/>
+      <c r="X25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X25" s="8">
-        <f t="shared" si="21"/>
+      <c r="Y25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="21"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="21"/>
+      <c r="AA25" s="8">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
       <c r="AB25" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,103 +2574,103 @@
       <c r="C26" s="1"/>
       <c r="D26" s="8">
         <f>D21/(C21+D54)-1</f>
-        <v>-2.891692913553856E-2</v>
+        <v>-4.1895752931881525E-2</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:AB26" si="22">E21/(D21+E54)-1</f>
-        <v>-2.5809302790861577E-2</v>
+        <f t="shared" ref="E26:AB26" si="21">E21/(D21+E54)-1</f>
+        <v>-3.9845487009633196E-2</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="22"/>
-        <v>-2.5934180942790319E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.171588023045103E-2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="22"/>
-        <v>-2.7063731246113054E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.4285184227284335E-2</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="22"/>
-        <v>-2.8149434585124644E-2</v>
+        <f t="shared" si="21"/>
+        <v>-6.365592775369977E-2</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="22"/>
-        <v>-3.137735245769524E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.5974688480213457E-2</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="22"/>
-        <v>4.0699371589374866E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.3724118696486292E-2</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.960473127596198E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.2192490967826179E-2</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.8966847944697403E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.1280097070768962E-2</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.7029693437986788E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.8966337036435705E-2</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.5796491783754325E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.7500063540110373E-2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.5003509603187322E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.6587754419331819E-2</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.3619658721459E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.4934539809903908E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.2569498598040258E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.3752412061871295E-2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.1789593473655842E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.2936138154898043E-2</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" si="22"/>
-        <v>3.0477827261859769E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.1442957577384689E-2</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="22"/>
-        <v>2.9585277034794188E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.0466099784696832E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="22"/>
-        <v>2.5457188208192427E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.9552543132011166E-2</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.019703819416522E-3</v>
+        <f t="shared" si="21"/>
+        <v>2.3890091876967334E-2</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.0277574574543191E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.9503628678401199E-3</v>
       </c>
       <c r="X26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.0395446580714385E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.9548341246662417E-3</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.0331082202407238E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.941538135026736E-3</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.0640364057527041E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.9707809847187043E-3</v>
       </c>
       <c r="AA26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.09650827611663E-3</v>
+        <f t="shared" si="21"/>
+        <v>6.0029221241271191E-3</v>
       </c>
       <c r="AB26" s="8">
-        <f t="shared" si="22"/>
-        <v>6.1077590495410838E-3</v>
+        <f t="shared" si="21"/>
+        <v>6.0127384064108114E-3</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
@@ -2718,107 +2717,107 @@
       </c>
       <c r="C30" s="8">
         <f>C17/C$21</f>
-        <v>0.51302018769229518</v>
+        <v>0.50532049965306369</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" ref="D30:AB30" si="23">D17/D$21</f>
-        <v>0.50681255190925878</v>
+        <f t="shared" ref="D30:AB30" si="22">D17/D$21</f>
+        <v>0.47250442631991285</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.47018996136383862</v>
+        <f t="shared" si="22"/>
+        <v>0.45949368292226439</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.46140149739739478</v>
+        <f t="shared" si="22"/>
+        <v>0.44559151855992624</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.45236259216988089</v>
+        <f t="shared" si="22"/>
+        <v>0.43090740807557876</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.44298551712684847</v>
+        <f t="shared" si="22"/>
+        <v>0.40965911924600901</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.49069282525044272</v>
+        <f t="shared" si="22"/>
+        <v>0.50569976015362628</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50242184645494081</v>
+        <f t="shared" si="22"/>
+        <v>0.51431459636712651</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.51078578857446022</v>
+        <f t="shared" si="22"/>
+        <v>0.52026631411538449</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.51635484039561397</v>
+        <f t="shared" si="22"/>
+        <v>0.52392616719237506</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52046373065911267</v>
+        <f t="shared" si="22"/>
+        <v>0.5266057960902234</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52316470023441097</v>
+        <f t="shared" si="22"/>
+        <v>0.52819777686563929</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52462336756847305</v>
+        <f t="shared" si="22"/>
+        <v>0.52875442122564431</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52548886505107462</v>
+        <f t="shared" si="22"/>
+        <v>0.52897076944303711</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52579335470456712</v>
+        <f t="shared" si="22"/>
+        <v>0.52876289658647246</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52558846678755977</v>
+        <f t="shared" si="22"/>
+        <v>0.52811152493738278</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52531852809738233</v>
+        <f t="shared" si="22"/>
+        <v>0.52752896717839204</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52483740722491656</v>
+        <f t="shared" si="22"/>
+        <v>0.52679527680705973</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.52522957383874214</v>
+        <f t="shared" si="22"/>
+        <v>0.52596644729498465</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.5192874443541059</v>
+        <f t="shared" si="22"/>
+        <v>0.52655121122370396</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.51481314293838432</v>
+        <f t="shared" si="22"/>
+        <v>0.52029769294606565</v>
       </c>
       <c r="X30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.51144016476341636</v>
+        <f t="shared" si="22"/>
+        <v>0.51559115027215785</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50890416038688868</v>
+        <f t="shared" si="22"/>
+        <v>0.51205637601985921</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50697833423215066</v>
+        <f t="shared" si="22"/>
+        <v>0.50938069146361209</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50551036260526594</v>
+        <f t="shared" si="22"/>
+        <v>0.50734931195455268</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50439715022385334</v>
+        <f t="shared" si="22"/>
+        <v>0.50581345454255411</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
@@ -2827,107 +2826,107 @@
       </c>
       <c r="C31" s="8">
         <f>C18/C$21</f>
-        <v>0.21459837994480599</v>
+        <v>0.21134004777855595</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" ref="D31:AB31" si="24">D18/D$21</f>
-        <v>0.22014547040265497</v>
+        <f t="shared" ref="D31:AB31" si="23">D18/D$21</f>
+        <v>0.21750918104674208</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.22492607372257997</v>
+        <f t="shared" si="23"/>
+        <v>0.22295019172363445</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.22962822091402715</v>
+        <f t="shared" si="23"/>
+        <v>0.22847015801311837</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.2335815222260634</v>
+        <f t="shared" si="23"/>
+        <v>0.23327325303345173</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23762318907484548</v>
+        <f t="shared" si="23"/>
+        <v>0.23909015404095713</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24226510517013747</v>
+        <f t="shared" si="23"/>
+        <v>0.2407219054534232</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24201510877991014</v>
+        <f t="shared" si="23"/>
+        <v>0.24014888424138278</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24167266115732541</v>
+        <f t="shared" si="23"/>
+        <v>0.23954800804548707</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.2411634170607351</v>
+        <f t="shared" si="23"/>
+        <v>0.23881397129213069</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24081645331864149</v>
+        <f t="shared" si="23"/>
+        <v>0.23829974034271326</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24049259472068338</v>
+        <f t="shared" si="23"/>
+        <v>0.23783826169021233</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24011075924811731</v>
+        <f t="shared" si="23"/>
+        <v>0.23732636340387639</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24022258472939395</v>
+        <f t="shared" si="23"/>
+        <v>0.23734571708828761</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24037002564742696</v>
+        <f t="shared" si="23"/>
+        <v>0.23741417411590077</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23963944054436187</v>
+        <f t="shared" si="23"/>
+        <v>0.23660125122045575</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23904318852409498</v>
+        <f t="shared" si="23"/>
+        <v>0.23595005893478027</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23849537437674739</v>
+        <f t="shared" si="23"/>
+        <v>0.23535484392085501</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23725313325217587</v>
+        <f t="shared" si="23"/>
+        <v>0.23481240966311273</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23812216299850136</v>
+        <f t="shared" si="23"/>
+        <v>0.23321073503746526</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23899231371656363</v>
+        <f t="shared" si="23"/>
+        <v>0.234071918621302</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.23986266995602284</v>
+        <f t="shared" si="23"/>
+        <v>0.23493514453633801</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24073755510349121</v>
+        <f t="shared" si="23"/>
+        <v>0.23580456467959501</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24160801643520841</v>
+        <f t="shared" si="23"/>
+        <v>0.23667021411075018</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24247358344994513</v>
+        <f t="shared" si="23"/>
+        <v>0.23753131744476069</v>
       </c>
       <c r="AB31" s="8">
-        <f t="shared" si="24"/>
-        <v>0.24333928530737206</v>
+        <f t="shared" si="23"/>
+        <v>0.23839306469760091</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
@@ -2936,107 +2935,107 @@
       </c>
       <c r="C32" s="8">
         <f>C19/C$21</f>
-        <v>0.17218133021190235</v>
+        <v>0.17117144802666798</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" ref="D32:AB32" si="25">D19/D$21</f>
-        <v>0.17629710448212044</v>
+        <f t="shared" ref="D32:AB32" si="24">D19/D$21</f>
+        <v>0.1768696044078516</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18341237129060911</v>
+        <f t="shared" si="24"/>
+        <v>0.18565736956194204</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18756443575472817</v>
+        <f t="shared" si="24"/>
+        <v>0.1917961374177008</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19548813547222044</v>
+        <f t="shared" si="24"/>
+        <v>0.20210089397691486</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.20382732730454117</v>
+        <f t="shared" si="24"/>
+        <v>0.21556587684663059</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.20969814032158218</v>
+        <f t="shared" si="24"/>
+        <v>0.21314303348846417</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.20821842682393507</v>
+        <f t="shared" si="24"/>
+        <v>0.2111994315180391</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.20678376287915651</v>
+        <f t="shared" si="24"/>
+        <v>0.20937783783224365</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19890892034140895</v>
+        <f t="shared" si="24"/>
+        <v>0.20109043532123655</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19754935746384045</v>
+        <f t="shared" si="24"/>
+        <v>0.19946372143462873</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19629991372338593</v>
+        <f t="shared" si="24"/>
+        <v>0.19798513731186854</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18714413794115806</v>
+        <f t="shared" si="24"/>
+        <v>0.18855662740177725</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18774485707663549</v>
+        <f t="shared" si="24"/>
+        <v>0.18900823586239285</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18839052512056664</v>
+        <f t="shared" si="24"/>
+        <v>0.1895212283469408</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18068783992413798</v>
+        <f t="shared" si="24"/>
+        <v>0.18164134497885584</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18231224378783309</v>
+        <f t="shared" si="24"/>
+        <v>0.18316890006101533</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18395272076749317</v>
+        <f t="shared" si="24"/>
+        <v>0.18472097396377143</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18451045507075059</v>
+        <f t="shared" si="24"/>
+        <v>0.1856350106442437</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18670268984601027</v>
+        <f t="shared" si="24"/>
+        <v>0.18464124434585527</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18890099465664195</v>
+        <f t="shared" si="24"/>
+        <v>0.18682451108158826</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.18842316987578037</v>
+        <f t="shared" si="24"/>
+        <v>0.18636254583604872</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19243899029419781</v>
+        <f t="shared" si="24"/>
+        <v>0.19034662538551539</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19646054967708992</v>
+        <f t="shared" si="24"/>
+        <v>0.19433726485828448</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19763373932690176</v>
+        <f t="shared" si="24"/>
+        <v>0.19551077213768961</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" si="25"/>
-        <v>0.19986116500684684</v>
+        <f t="shared" si="24"/>
+        <v>0.19772774802525608</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
@@ -3045,107 +3044,107 @@
       </c>
       <c r="C33" s="8">
         <f>C20/C$21</f>
-        <v>0.10020010215099653</v>
+        <v>0.11216800454171243</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" ref="D33:AB33" si="26">D20/D$21</f>
-        <v>9.6744873205965878E-2</v>
+        <f t="shared" ref="D33:AB33" si="25">D20/D$21</f>
+        <v>0.13311678822549333</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="26"/>
-        <v>0.12147159362297226</v>
+        <f t="shared" si="25"/>
+        <v>0.13189875579215921</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="26"/>
-        <v>0.1214058459338498</v>
+        <f t="shared" si="25"/>
+        <v>0.13414218600925445</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="26"/>
-        <v>0.11856775013183531</v>
+        <f t="shared" si="25"/>
+        <v>0.1337184449140546</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="26"/>
-        <v>0.11556396649376485</v>
+        <f t="shared" si="25"/>
+        <v>0.13568484986640333</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.734392925783767E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.0435300904486396E-2</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.7344617941213987E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.433708787345164E-2</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.0757787389057935E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.0807840006884666E-2</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.3572822202241908E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.616942619425758E-2</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.1170458558405336E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.5630742132434674E-2</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.004279132151968E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.5978824132279881E-2</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.8121735242251711E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.5362587968702101E-2</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.6543693142896005E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.4675277606282343E-2</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="26"/>
-        <v>4.5446094527439383E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.4301700950686022E-2</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.4084252743940298E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.3645878863305518E-2</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.3326039590689468E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.3352073825812453E-2</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.2714497630842835E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.312890530831392E-2</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.3006837838331468E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.35861323976589E-2</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.588770280138259E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.5596809392975524E-2</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.729354868841028E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.880587735104402E-2</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" si="26"/>
-        <v>6.0273995404780407E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.3111159355455471E-2</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.791929421542235E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.1792433915030337E-2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.4953099655550959E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.9611829567353294E-2</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.4382314617887124E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.9608598462996973E-2</v>
       </c>
       <c r="AB33" s="8">
-        <f t="shared" si="26"/>
-        <v>5.2402399461927839E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.806573273458894E-2</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
@@ -3166,99 +3165,99 @@
         <v>0.52333333333333332</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" ref="E36:AB36" si="27">0.5+(0.2-E38)*5/6</f>
+        <f t="shared" ref="E36:AB36" si="26">0.5+(0.2-E38)*5/6</f>
         <v>0.51416666666666666</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.51</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.50416666666666665</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3267,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:C39" si="28">D37</f>
+        <f t="shared" ref="C37:C39" si="27">D37</f>
         <v>0.2</v>
       </c>
       <c r="D37" s="8">
@@ -3351,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="D38" s="8">
@@ -3370,83 +3369,83 @@
         <v>0.2</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" ref="F38:AB38" si="29">MIN(0.2,H38+0.02/20)</f>
+        <f t="shared" ref="I38:AB38" si="28">MIN(0.2,H38+0.02/20)</f>
         <v>0.2</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="AB38" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3455,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.10466666666666667</v>
       </c>
       <c r="D39" s="8">
@@ -3463,99 +3462,99 @@
         <v>0.10466666666666667</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" ref="E39:AB39" si="30">0.1+(0.2-E38)*1/6</f>
+        <f t="shared" ref="E39:AB39" si="29">0.1+(0.2-E38)*1/6</f>
         <v>0.10283333333333335</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.10200000000000001</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.10083333333333334</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="AB39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3570,107 +3569,107 @@
       </c>
       <c r="C42" s="9">
         <f>C30-C36</f>
-        <v>-1.0313145641038135E-2</v>
+        <v>-1.8012833680269624E-2</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" ref="D42:AB45" si="31">D30-D36</f>
-        <v>-1.6520781424074538E-2</v>
+        <f t="shared" ref="D42:AB45" si="30">D30-D36</f>
+        <v>-5.0828907013420466E-2</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.3976705302828045E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.467298374440227E-2</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.8598502602605231E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.4408481440073773E-2</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.1804074496785757E-2</v>
+        <f t="shared" si="30"/>
+        <v>-7.3259258591087895E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.7014482873151529E-2</v>
+        <f t="shared" si="30"/>
+        <v>-9.0340880753990993E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="31"/>
-        <v>-9.3071747495572787E-3</v>
+        <f t="shared" si="30"/>
+        <v>5.6997601536262765E-3</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.4218464549408125E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.4314596367126509E-2</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="31"/>
-        <v>1.078578857446022E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.0266314115384487E-2</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="31"/>
-        <v>1.6354840395613968E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.3926167192375059E-2</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.0463730659112667E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.6605796090223399E-2</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.3164700234410973E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.819777686563929E-2</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.4623367568473054E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.8754421225644311E-2</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.5488865051074616E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.8970769443037114E-2</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.5793354704567117E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.8762896586472464E-2</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.5588466787559772E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.8111524937382781E-2</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.5318528097382331E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.7528967178392039E-2</v>
       </c>
       <c r="T42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.4837407224916563E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.6795276807059731E-2</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="31"/>
-        <v>2.5229573838742136E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.5966447294984651E-2</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="31"/>
-        <v>1.9287444354105898E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.6551211223703963E-2</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="31"/>
-        <v>1.4813142938384316E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.0297692946065649E-2</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="31"/>
-        <v>1.1440164763416361E-2</v>
+        <f t="shared" si="30"/>
+        <v>1.559115027215785E-2</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" si="31"/>
-        <v>8.9041603868886821E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.2056376019859205E-2</v>
       </c>
       <c r="Z42" s="9">
-        <f t="shared" si="31"/>
-        <v>6.9783342321506625E-3</v>
+        <f t="shared" si="30"/>
+        <v>9.3806914636120897E-3</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="31"/>
-        <v>5.5103626052659394E-3</v>
+        <f t="shared" si="30"/>
+        <v>7.3493119545526842E-3</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="31"/>
-        <v>4.3971502238533411E-3</v>
+        <f t="shared" si="30"/>
+        <v>5.8134545425541084E-3</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
@@ -3678,108 +3677,108 @@
         <v>0</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:R45" si="32">C31-C37</f>
-        <v>1.4598379944805978E-2</v>
+        <f t="shared" ref="C43:R45" si="31">C31-C37</f>
+        <v>1.1340047778555934E-2</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="32"/>
-        <v>2.0145470402654964E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.7509181046742067E-2</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="32"/>
-        <v>2.4926073722579961E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.2950191723634439E-2</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="32"/>
-        <v>2.9628220914027142E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.8470158013118363E-2</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="32"/>
-        <v>3.3581522226063393E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.3273253033451716E-2</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="32"/>
-        <v>3.7623189074845464E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.9090154040957115E-2</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.2265105170137457E-2</v>
+        <f t="shared" si="31"/>
+        <v>4.0721905453423191E-2</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.2015108779910132E-2</v>
+        <f t="shared" si="31"/>
+        <v>4.0148884241382771E-2</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.1672661157325402E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.9548008045487054E-2</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.1163417060735091E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.8813971292130683E-2</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.0816453318641477E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.8299740342713245E-2</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.0492594720683367E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.7838261690212316E-2</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.01107592481173E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.7326363403876378E-2</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.022258472939394E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.73457170882876E-2</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="32"/>
-        <v>4.0370025647426949E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.7414174115900756E-2</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="32"/>
-        <v>3.9639440544361859E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.6601251220455738E-2</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.9043188524094968E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.595005893478026E-2</v>
       </c>
       <c r="T43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.8495374376747382E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.5354843920855E-2</v>
       </c>
       <c r="U43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.7253133252175857E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.481240966311272E-2</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.8122162998501352E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.3210735037465244E-2</v>
       </c>
       <c r="W43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.8992313716563615E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.4071918621301989E-2</v>
       </c>
       <c r="X43" s="9">
-        <f t="shared" si="31"/>
-        <v>3.9862669956022834E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.4935144536338003E-2</v>
       </c>
       <c r="Y43" s="9">
-        <f t="shared" si="31"/>
-        <v>4.0737555103491196E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.5804564679595002E-2</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" si="31"/>
-        <v>4.1608016435208395E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.6670214110750166E-2</v>
       </c>
       <c r="AA43" s="9">
-        <f t="shared" si="31"/>
-        <v>4.2473583449945118E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.7531317444760681E-2</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" si="31"/>
-        <v>4.333928530737205E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.8393064697600898E-2</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
@@ -3787,108 +3786,108 @@
         <v>1</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8133021190236409E-4</v>
+        <f t="shared" si="31"/>
+        <v>-8.2855197333200903E-4</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="31"/>
-        <v>4.2971044821204507E-3</v>
+        <f t="shared" si="30"/>
+        <v>4.8696044078516132E-3</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="31"/>
-        <v>4.1237129060911482E-4</v>
+        <f t="shared" si="30"/>
+        <v>2.6573695619420412E-3</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.3556424527183002E-4</v>
+        <f t="shared" si="30"/>
+        <v>3.7961374177007956E-3</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="31"/>
-        <v>4.8813547222043008E-4</v>
+        <f t="shared" si="30"/>
+        <v>7.1008939769148516E-3</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="31"/>
-        <v>3.8273273045411615E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.5565876846630577E-2</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="31"/>
-        <v>9.6981403215821715E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.3143033488464156E-2</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="31"/>
-        <v>8.21842682393506E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.1199431518039094E-2</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7837628791564963E-3</v>
+        <f t="shared" si="30"/>
+        <v>9.3778378322436351E-3</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.0910796585910654E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.0904353212365381E-3</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="31"/>
-        <v>-2.4506425361595641E-3</v>
+        <f t="shared" si="30"/>
+        <v>-5.3627856537127871E-4</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="31"/>
-        <v>-3.7000862766140841E-3</v>
+        <f t="shared" si="30"/>
+        <v>-2.0148626881314746E-3</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.2855862058841955E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.1443372598222756E-2</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.225514292336452E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.0991764137607163E-2</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.1609474879433368E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.0478771653059216E-2</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.9312160075862034E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.8358655021144171E-2</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.7687756212166922E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.6831099938984684E-2</v>
       </c>
       <c r="T44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.6047279232506845E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.5279026036228577E-2</v>
       </c>
       <c r="U44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.5489544929249421E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.4364989355756308E-2</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.3297310153989744E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.535875565414474E-2</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.1099005343358059E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.3175488918411749E-2</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.1576830124219645E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.363745416395129E-2</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="31"/>
-        <v>-7.5610097058022019E-3</v>
+        <f t="shared" si="30"/>
+        <v>-9.6533746144846222E-3</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="31"/>
-        <v>-3.5394503229100871E-3</v>
+        <f t="shared" si="30"/>
+        <v>-5.6627351417155303E-3</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="31"/>
-        <v>-2.3662606730982527E-3</v>
+        <f t="shared" si="30"/>
+        <v>-4.4892278623104021E-3</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" si="31"/>
-        <v>-1.3883499315317516E-4</v>
+        <f t="shared" si="30"/>
+        <v>-2.2722519747439274E-3</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
@@ -3896,108 +3895,108 @@
         <v>3</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="32"/>
-        <v>-4.4665645156701378E-3</v>
+        <f t="shared" si="31"/>
+        <v>7.5013378750457549E-3</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="31"/>
-        <v>-7.9217934607007934E-3</v>
+        <f t="shared" si="30"/>
+        <v>2.845012155882666E-2</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="31"/>
-        <v>1.8638260289638914E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.906542245882586E-2</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="31"/>
-        <v>1.9405845933849794E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.2142186009254448E-2</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="31"/>
-        <v>1.7734416798501962E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.2885111580721257E-2</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="31"/>
-        <v>1.5563966493764847E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.5684849866403329E-2</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.2656070742162336E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.956469909551361E-2</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.2655382058786018E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.5662912126548373E-2</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.924221261094207E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.9192159993115343E-2</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.6427177797758098E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.3830573805742419E-2</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.882954144159467E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.4369257867565338E-2</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.9957208678480325E-2</v>
+        <f t="shared" si="30"/>
+        <v>-6.4021175867720131E-2</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.1878264757748295E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.4637412031297905E-2</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.3456306857104001E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.5324722393717662E-2</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="31"/>
-        <v>-5.4553905472560622E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.5698299049313983E-2</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.5915747256059708E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.6354121136694487E-2</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.6673960409310537E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.6647926174187553E-2</v>
       </c>
       <c r="T45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.728550236915717E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.6871094691686085E-2</v>
       </c>
       <c r="U45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.6993162161668538E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.6413867602341105E-2</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.4112297198617416E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.4403190607024481E-2</v>
       </c>
       <c r="W45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.2706451311589726E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.1194122648955986E-2</v>
       </c>
       <c r="X45" s="9">
-        <f t="shared" si="31"/>
-        <v>-3.9726004595219598E-2</v>
+        <f t="shared" si="30"/>
+        <v>-3.6888840644544535E-2</v>
       </c>
       <c r="Y45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.2080705784577656E-2</v>
+        <f t="shared" si="30"/>
+        <v>-3.8207566084969669E-2</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.5046900344449047E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.0388170432646711E-2</v>
       </c>
       <c r="AA45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.5617685382112881E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.0391401537003033E-2</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" si="31"/>
-        <v>-4.7597600538072167E-2</v>
+        <f t="shared" si="30"/>
+        <v>-4.1934267265411065E-2</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
@@ -4011,103 +4010,103 @@
       </c>
       <c r="D48" s="1">
         <f>D42*D$21</f>
-        <v>-590.32251688108761</v>
+        <v>-1801.2025187166473</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ref="E48:AB51" si="33">E42*E$21</f>
-        <v>-1526.1120074559594</v>
+        <f t="shared" ref="E48:AB51" si="32">E42*E$21</f>
+        <v>-1854.4514659710708</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="33"/>
-        <v>-1637.5558023315905</v>
+        <f t="shared" si="32"/>
+        <v>-2086.7447585521418</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="33"/>
-        <v>-1692.7836269913134</v>
+        <f t="shared" si="32"/>
+        <v>-2260.6851428522195</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="33"/>
-        <v>-1804.5036802633681</v>
+        <f t="shared" si="32"/>
+        <v>-2601.036696348483</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="33"/>
-        <v>-284.33677980479666</v>
+        <f t="shared" si="32"/>
+        <v>169.35789434032154</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="33"/>
-        <v>76.722106416344843</v>
+        <f t="shared" si="32"/>
+        <v>442.28572390712623</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="33"/>
-        <v>353.98383701283808</v>
+        <f t="shared" si="32"/>
+        <v>650.27582669003584</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="33"/>
-        <v>555.80375122628971</v>
+        <f t="shared" si="32"/>
+        <v>796.658367268137</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="33"/>
-        <v>718.85807645800833</v>
+        <f t="shared" si="32"/>
+        <v>917.35956244885608</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="33"/>
-        <v>840.2284748375348</v>
+        <f t="shared" si="32"/>
+        <v>1005.4919501761449</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="33"/>
-        <v>921.59671515545017</v>
+        <f t="shared" si="32"/>
+        <v>1059.577298013493</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="33"/>
-        <v>983.16511177793871</v>
+        <f t="shared" si="32"/>
+        <v>1101.5457948022586</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="33"/>
-        <v>1024.3840315983596</v>
+        <f t="shared" si="32"/>
+        <v>1127.2842593552321</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="33"/>
-        <v>1045.6487657537868</v>
+        <f t="shared" si="32"/>
+        <v>1134.8489583541138</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="33"/>
-        <v>1063.2809614991377</v>
+        <f t="shared" si="32"/>
+        <v>1143.151521135982</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="33"/>
-        <v>1071.1224716128681</v>
+        <f t="shared" si="32"/>
+        <v>1143.5466164231893</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="33"/>
-        <v>1112.8872069437386</v>
+        <f t="shared" si="32"/>
+        <v>1137.9831722371187</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="33"/>
-        <v>853.76439142076026</v>
+        <f t="shared" si="32"/>
+        <v>1188.4188880347592</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="33"/>
-        <v>658.02130651430934</v>
+        <f t="shared" si="32"/>
+        <v>911.67450799649362</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="33"/>
-        <v>509.99193111371545</v>
+        <f t="shared" si="32"/>
+        <v>702.72411010309679</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="33"/>
-        <v>398.34861926824402</v>
+        <f t="shared" si="32"/>
+        <v>545.29939312476893</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" si="33"/>
-        <v>313.31311683947837</v>
+        <f t="shared" si="32"/>
+        <v>425.77575847894582</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="33"/>
-        <v>248.30262107613558</v>
+        <f t="shared" si="32"/>
+        <v>334.76358094125976</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" si="33"/>
-        <v>198.86367463168389</v>
+        <f t="shared" si="32"/>
+        <v>265.75364658270121</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
@@ -4115,104 +4114,104 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49:S51" si="34">D43*D$21</f>
-        <v>719.84033240212909</v>
+        <f t="shared" ref="D49:S51" si="33">D43*D$21</f>
+        <v>620.46545666879399</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="34"/>
-        <v>865.00296338287706</v>
+        <f t="shared" si="33"/>
+        <v>778.44693615370056</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="34"/>
-        <v>998.34074039817051</v>
+        <f t="shared" si="33"/>
+        <v>922.39331964846212</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="34"/>
-        <v>1097.3316586758458</v>
+        <f t="shared" si="33"/>
+        <v>1026.7691788548557</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="34"/>
-        <v>1190.7708309807992</v>
+        <f t="shared" si="33"/>
+        <v>1125.4586437265025</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="34"/>
-        <v>1291.2107299542854</v>
+        <f t="shared" si="33"/>
+        <v>1209.9765560713461</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="34"/>
-        <v>1331.0041354315949</v>
+        <f t="shared" si="33"/>
+        <v>1240.5015045721448</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="34"/>
-        <v>1367.6745462947429</v>
+        <f t="shared" si="33"/>
+        <v>1268.9586019098069</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="34"/>
-        <v>1398.8997178954089</v>
+        <f t="shared" si="33"/>
+        <v>1292.3705977711056</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="34"/>
-        <v>1433.8166197183996</v>
+        <f t="shared" si="33"/>
+        <v>1320.5631180345265</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="34"/>
-        <v>1468.7447176127607</v>
+        <f t="shared" si="33"/>
+        <v>1349.257699266652</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="34"/>
-        <v>1501.2546055148839</v>
+        <f t="shared" si="33"/>
+        <v>1375.4464737713683</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="34"/>
-        <v>1551.4791236185292</v>
+        <f t="shared" si="33"/>
+        <v>1419.9836042796317</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="34"/>
-        <v>1603.2970546912982</v>
+        <f t="shared" si="33"/>
+        <v>1466.3477800586659</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="34"/>
-        <v>1619.8286683019878</v>
+        <f t="shared" si="33"/>
+        <v>1477.5751907629729</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="34"/>
-        <v>1639.6639991952727</v>
+        <f t="shared" si="33"/>
+        <v>1492.8407698665681</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="33"/>
-        <v>1660.1274108321443</v>
+        <f t="shared" si="32"/>
+        <v>1508.8447277846992</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="33"/>
-        <v>1643.2515142706784</v>
+        <f t="shared" si="32"/>
+        <v>1525.6587060833249</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="33"/>
-        <v>1687.488746280161</v>
+        <f t="shared" si="32"/>
+        <v>1486.4958314521493</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="33"/>
-        <v>1732.0951618784241</v>
+        <f t="shared" si="32"/>
+        <v>1530.3463170967409</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="33"/>
-        <v>1777.0408425612359</v>
+        <f t="shared" si="32"/>
+        <v>1574.5963528721377</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="33"/>
-        <v>1822.490624914504</v>
+        <f t="shared" si="32"/>
+        <v>1619.4092950252639</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="33"/>
-        <v>1868.1159258268572</v>
+        <f t="shared" si="32"/>
+        <v>1664.4069669228845</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="33"/>
-        <v>1913.9034674485572</v>
+        <f t="shared" si="32"/>
+        <v>1709.5638752234693</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="33"/>
-        <v>1960.0443681412899</v>
+        <f t="shared" si="32"/>
+        <v>1755.0832937949383</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
@@ -4220,104 +4219,104 @@
         <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="34"/>
-        <v>153.54464586583236</v>
+        <f t="shared" si="33"/>
+        <v>172.56211553516485</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="33"/>
-        <v>14.310412155596625</v>
+        <f t="shared" si="32"/>
+        <v>90.135246739206423</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="33"/>
-        <v>-14.676599461622699</v>
+        <f t="shared" si="32"/>
+        <v>122.98954550731176</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="33"/>
-        <v>15.950632129904886</v>
+        <f t="shared" si="32"/>
+        <v>219.12432398726293</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="33"/>
-        <v>121.13459350289541</v>
+        <f t="shared" si="32"/>
+        <v>448.16274261460222</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="33"/>
-        <v>296.28088687868461</v>
+        <f t="shared" si="32"/>
+        <v>390.52107752893477</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="33"/>
-        <v>260.35301126317614</v>
+        <f t="shared" si="32"/>
+        <v>346.03481294656541</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="33"/>
-        <v>222.63948498260368</v>
+        <f t="shared" si="32"/>
+        <v>300.90233548181789</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="33"/>
-        <v>-37.07930817192473</v>
+        <f t="shared" si="32"/>
+        <v>36.307713460459773</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="33"/>
-        <v>-86.087146521612169</v>
+        <f t="shared" si="32"/>
+        <v>-18.490717902648019</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="33"/>
-        <v>-134.20928470934723</v>
+        <f t="shared" si="32"/>
+        <v>-71.847090048264874</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="33"/>
-        <v>-481.16571427419274</v>
+        <f t="shared" si="32"/>
+        <v>-421.67907754557211</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="33"/>
-        <v>-472.70951209325472</v>
+        <f t="shared" si="32"/>
+        <v>-417.9361403240012</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="33"/>
-        <v>-461.07072220536207</v>
+        <f t="shared" si="32"/>
+        <v>-410.68723055615493</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="33"/>
-        <v>-789.17336138256587</v>
+        <f t="shared" si="32"/>
+        <v>-741.13021523860755</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="33"/>
-        <v>-742.81784311069964</v>
+        <f t="shared" si="32"/>
+        <v>-698.91824756666767</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="33"/>
-        <v>-692.04491590173711</v>
+        <f t="shared" si="32"/>
+        <v>-652.06561036039</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="33"/>
-        <v>-683.25039904841196</v>
+        <f t="shared" si="32"/>
+        <v>-629.54766089134603</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="33"/>
-        <v>-588.60934101605744</v>
+        <f t="shared" si="32"/>
+        <v>-687.45019435501183</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" si="33"/>
-        <v>-493.03392449694121</v>
+        <f t="shared" si="32"/>
+        <v>-591.77944061049334</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="33"/>
-        <v>-516.08434610194206</v>
+        <f t="shared" si="32"/>
+        <v>-614.66714605067318</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="33"/>
-        <v>-338.25960514088769</v>
+        <f t="shared" si="32"/>
+        <v>-436.61373120859145</v>
       </c>
       <c r="Z50" s="1">
-        <f t="shared" si="33"/>
-        <v>-158.91417287814357</v>
+        <f t="shared" si="32"/>
+        <v>-257.02320126206558</v>
       </c>
       <c r="AA50" s="1">
-        <f t="shared" si="33"/>
-        <v>-106.62614593061265</v>
+        <f t="shared" si="32"/>
+        <v>-204.48580821465163</v>
       </c>
       <c r="AB50" s="1">
-        <f t="shared" si="33"/>
-        <v>-6.2788932604877816</v>
+        <f t="shared" si="32"/>
+        <v>-103.87270491628209</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
@@ -4325,104 +4324,104 @@
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="34"/>
-        <v>-283.06246138687089</v>
+        <f t="shared" si="33"/>
+        <v>1008.174946512684</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="33"/>
-        <v>646.79863191748382</v>
+        <f t="shared" si="32"/>
+        <v>985.86928307816618</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="33"/>
-        <v>653.89166139503834</v>
+        <f t="shared" si="32"/>
+        <v>1041.3618933963626</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="33"/>
-        <v>579.50133618556367</v>
+        <f t="shared" si="32"/>
+        <v>1014.7916400100991</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="33"/>
-        <v>492.59825577967183</v>
+        <f t="shared" si="32"/>
+        <v>1027.415310007379</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1303.154837028173</v>
+        <f t="shared" si="32"/>
+        <v>-1769.8555279406019</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1668.0792531111165</v>
+        <f t="shared" si="32"/>
+        <v>-2028.8220414258365</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1944.297868290183</v>
+        <f t="shared" si="32"/>
+        <v>-2220.1367640816661</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1917.6241609497774</v>
+        <f t="shared" si="32"/>
+        <v>-2125.336678499707</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2066.5875496547987</v>
+        <f t="shared" si="32"/>
+        <v>-2219.4319625807334</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2174.7639077409508</v>
+        <f t="shared" si="32"/>
+        <v>-2282.9025593945321</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1941.6856063961375</v>
+        <f t="shared" si="32"/>
+        <v>-2013.3446942392882</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2061.9347233032122</v>
+        <f t="shared" si="32"/>
+        <v>-2103.5932587578932</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2166.6103640842925</v>
+        <f t="shared" si="32"/>
+        <v>-2182.9448088577419</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1876.3040726732133</v>
+        <f t="shared" si="32"/>
+        <v>-1871.2939338784847</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1960.1271175837173</v>
+        <f t="shared" si="32"/>
+        <v>-1937.0740434358797</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2039.204966543278</v>
+        <f t="shared" si="32"/>
+        <v>-2000.3257338474957</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2072.8883221660035</v>
+        <f t="shared" si="32"/>
+        <v>-2034.0942174290994</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1952.6437966848598</v>
+        <f t="shared" si="32"/>
+        <v>-1987.4645251318973</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1897.0825438957856</v>
+        <f t="shared" si="32"/>
+        <v>-1850.2413844827456</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1770.9484275730115</v>
+        <f t="shared" si="32"/>
+        <v>-1662.6533169245599</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="33"/>
-        <v>-1882.5796390418595</v>
+        <f t="shared" si="32"/>
+        <v>-1728.0949569414449</v>
       </c>
       <c r="Z51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2022.5148697881953</v>
+        <f t="shared" si="32"/>
+        <v>-1833.1595241397642</v>
       </c>
       <c r="AA51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2055.5799425940836</v>
+        <f t="shared" si="32"/>
+        <v>-1839.8416479500806</v>
       </c>
       <c r="AB51" s="1">
-        <f t="shared" si="33"/>
-        <v>-2152.6291495124838</v>
+        <f t="shared" si="32"/>
+        <v>-1916.9642354613568</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
@@ -4442,95 +4441,95 @@
         <v>-110</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" ref="F54:AB54" si="35">E54</f>
+        <f t="shared" ref="F54:AB54" si="34">E54</f>
         <v>-110</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="R54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="S54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="T54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="U54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="V54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="W54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="X54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="Y54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="Z54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="AA54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
       <c r="AB54" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-110</v>
       </c>
     </row>
@@ -4546,92 +4545,94 @@
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6">
+        <v>-800</v>
+      </c>
       <c r="E57" s="6">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="7">
         <f>-H48</f>
-        <v>1804.5036802633681</v>
+        <v>2601.036696348483</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" ref="J57:AB57" si="36">-0.25*I48</f>
-        <v>71.084194951199166</v>
+        <f t="shared" ref="J57:AB57" si="35">-0.25*I48</f>
+        <v>-42.339473585080384</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="36"/>
-        <v>-19.180526604086211</v>
+        <f t="shared" si="35"/>
+        <v>-110.57143097678156</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" si="36"/>
-        <v>-88.49595925320952</v>
+        <f t="shared" si="35"/>
+        <v>-162.56895667250896</v>
       </c>
       <c r="M57" s="7">
-        <f t="shared" si="36"/>
-        <v>-138.95093780657243</v>
+        <f t="shared" si="35"/>
+        <v>-199.16459181703425</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="36"/>
-        <v>-179.71451911450208</v>
+        <f t="shared" si="35"/>
+        <v>-229.33989061221402</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="36"/>
-        <v>-210.0571187093837</v>
+        <f t="shared" si="35"/>
+        <v>-251.37298754403622</v>
       </c>
       <c r="P57" s="7">
-        <f t="shared" si="36"/>
-        <v>-230.39917878886254</v>
+        <f t="shared" si="35"/>
+        <v>-264.89432450337324</v>
       </c>
       <c r="Q57" s="7">
-        <f t="shared" si="36"/>
-        <v>-245.79127794448468</v>
+        <f t="shared" si="35"/>
+        <v>-275.38644870056464</v>
       </c>
       <c r="R57" s="7">
-        <f t="shared" si="36"/>
-        <v>-256.09600789958989</v>
+        <f t="shared" si="35"/>
+        <v>-281.82106483880801</v>
       </c>
       <c r="S57" s="7">
-        <f t="shared" si="36"/>
-        <v>-261.41219143844671</v>
+        <f t="shared" si="35"/>
+        <v>-283.71223958852846</v>
       </c>
       <c r="T57" s="7">
-        <f t="shared" si="36"/>
-        <v>-265.82024037478442</v>
+        <f t="shared" si="35"/>
+        <v>-285.78788028399549</v>
       </c>
       <c r="U57" s="7">
-        <f t="shared" si="36"/>
-        <v>-267.78061790321703</v>
+        <f t="shared" si="35"/>
+        <v>-285.88665410579733</v>
       </c>
       <c r="V57" s="7">
-        <f t="shared" si="36"/>
-        <v>-278.22180173593466</v>
+        <f t="shared" si="35"/>
+        <v>-284.49579305927966</v>
       </c>
       <c r="W57" s="7">
-        <f t="shared" si="36"/>
-        <v>-213.44109785519007</v>
+        <f t="shared" si="35"/>
+        <v>-297.10472200868981</v>
       </c>
       <c r="X57" s="7">
-        <f t="shared" si="36"/>
-        <v>-164.50532662857734</v>
+        <f t="shared" si="35"/>
+        <v>-227.9186269991234</v>
       </c>
       <c r="Y57" s="7">
-        <f t="shared" si="36"/>
-        <v>-127.49798277842886</v>
+        <f t="shared" si="35"/>
+        <v>-175.6810275257742</v>
       </c>
       <c r="Z57" s="7">
-        <f t="shared" si="36"/>
-        <v>-99.587154817061005</v>
+        <f t="shared" si="35"/>
+        <v>-136.32484828119223</v>
       </c>
       <c r="AA57" s="7">
-        <f t="shared" si="36"/>
-        <v>-78.328279209869592</v>
+        <f t="shared" si="35"/>
+        <v>-106.44393961973645</v>
       </c>
       <c r="AB57" s="7">
-        <f t="shared" si="36"/>
-        <v>-62.075655269033895</v>
+        <f t="shared" si="35"/>
+        <v>-83.69089523531494</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
@@ -4646,99 +4647,99 @@
         <v>60</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:AB58" si="37">$C58*E65</f>
+        <f t="shared" ref="E58:AB58" si="36">$C58*E65</f>
         <v>60</v>
       </c>
       <c r="F58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>60</v>
       </c>
       <c r="G58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="H58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="I58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="J58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="K58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="L58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="M58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="N58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="O58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="P58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="R58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="S58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="T58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="U58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="V58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="W58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="X58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-12</v>
       </c>
     </row>
@@ -4754,99 +4755,99 @@
         <v>77.264075343985979</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ref="E59:AB59" si="38">$C59*E67</f>
+        <f t="shared" ref="E59:AB59" si="37">$C59*E67</f>
         <v>77.264075343985979</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-38.420724610003731</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>88.264229770504386</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>88.264229770504386</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-27.690693264856108</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>48.869989244407471</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>48.869989244407471</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-187.40681773018559</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>40.947717772372457</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>40.947717772372457</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-271.17992675910909</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>104.18917824927996</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>104.18917824927996</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-244.10492995940467</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>137.70920555017247</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>137.70920555017247</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>108.74781413635432</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>48.387247546232722</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>48.387247546232722</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>-71.149117583233945</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>129.77878639213947</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>129.77878639213947</v>
       </c>
       <c r="AA59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.2004611079354532</v>
       </c>
       <c r="AB59" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>48.754060739675957</v>
       </c>
     </row>
@@ -4856,103 +4857,103 @@
       </c>
       <c r="D60" s="1">
         <f>-SUM(D57:D59)</f>
+        <v>662.73592465601405</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ref="E60:AB60" si="38">-SUM(E57:E59)</f>
         <v>-137.26407534398598</v>
       </c>
-      <c r="E60" s="1">
-        <f t="shared" ref="E60:AB60" si="39">-SUM(E57:E59)</f>
-        <v>862.73592465601405</v>
-      </c>
       <c r="F60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-21.579275389996269</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-113.26422977050439</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>-113.26422977050439</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="39"/>
-        <v>-1801.8129869985121</v>
+        <f t="shared" si="38"/>
+        <v>-2598.3460030836268</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="39"/>
-        <v>-144.95418419560664</v>
+        <f t="shared" si="38"/>
+        <v>-31.530515659327087</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="39"/>
-        <v>-54.68946264032126</v>
+        <f t="shared" si="38"/>
+        <v>36.701441732374086</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="39"/>
-        <v>250.90277698339511</v>
+        <f t="shared" si="38"/>
+        <v>324.97577440269458</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="39"/>
-        <v>73.00322003419997</v>
+        <f t="shared" si="38"/>
+        <v>133.21687404466178</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="39"/>
-        <v>113.76680134212963</v>
+        <f t="shared" si="38"/>
+        <v>163.39217283984158</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="39"/>
-        <v>456.23704546849279</v>
+        <f t="shared" si="38"/>
+        <v>497.55291430314531</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="39"/>
-        <v>101.21000053958258</v>
+        <f t="shared" si="38"/>
+        <v>135.70514625409328</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="39"/>
-        <v>116.60209969520471</v>
+        <f t="shared" si="38"/>
+        <v>146.19727045128468</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="39"/>
-        <v>512.20093785899462</v>
+        <f t="shared" si="38"/>
+        <v>537.92599479821274</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="39"/>
-        <v>135.70298588827424</v>
+        <f t="shared" si="38"/>
+        <v>158.00303403835599</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="39"/>
-        <v>140.11103482461195</v>
+        <f t="shared" si="38"/>
+        <v>160.07867473382302</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="39"/>
-        <v>171.03280376686271</v>
+        <f t="shared" si="38"/>
+        <v>189.13883996944301</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="39"/>
-        <v>241.83455418970195</v>
+        <f t="shared" si="38"/>
+        <v>248.10854551304695</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="39"/>
-        <v>177.05385030895735</v>
+        <f t="shared" si="38"/>
+        <v>260.71747446245706</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="39"/>
-        <v>247.65444421181127</v>
+        <f t="shared" si="38"/>
+        <v>311.06774458235736</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="39"/>
-        <v>9.7191963862894113</v>
+        <f t="shared" si="38"/>
+        <v>57.902241133634732</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" si="39"/>
-        <v>-18.191631575078461</v>
+        <f t="shared" si="38"/>
+        <v>18.546061889052766</v>
       </c>
       <c r="AA60" s="1">
-        <f t="shared" si="39"/>
-        <v>89.127818101934139</v>
+        <f t="shared" si="38"/>
+        <v>117.243478511801</v>
       </c>
       <c r="AB60" s="1">
-        <f t="shared" si="39"/>
-        <v>25.321594529357931</v>
+        <f t="shared" si="38"/>
+        <v>46.936834495638983</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
@@ -5135,107 +5136,107 @@
         <v>77.264075343985979</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:AD67" si="40">E66*-1</f>
+        <f t="shared" ref="E67:AD67" si="39">E66*-1</f>
         <v>77.264075343985979</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-38.420724610003731</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>88.264229770504386</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>88.264229770504386</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-27.690693264856108</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.869989244407471</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.869989244407471</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-187.40681773018559</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>40.947717772372457</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>40.947717772372457</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-271.17992675910909</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>104.18917824927996</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>104.18917824927996</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-244.10492995940467</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>137.70920555017247</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>137.70920555017247</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>108.74781413635432</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.387247546232722</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.387247546232722</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-71.149117583233945</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>129.77878639213947</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>129.77878639213947</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.2004611079354532</v>
       </c>
       <c r="AB67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.754060739675957</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.754060739675957</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-164.43609305060778</v>
       </c>
     </row>
@@ -5324,79 +5325,103 @@
         <v>21</v>
       </c>
       <c r="D71">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E71">
-        <v>0.02</v>
+        <f>D71</f>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>0.02</v>
+        <f t="shared" ref="F71:AB71" si="40">E71</f>
+        <v>0.01</v>
       </c>
       <c r="G71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="H71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="I71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="J71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="K71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="L71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="M71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="N71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="O71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="P71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="Q71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="R71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="S71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="T71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="U71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="V71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="W71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="X71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="Y71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="Z71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="AA71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="AB71">
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>

--- a/cashflow 2.xlsx
+++ b/cashflow 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlp\Documents\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3780CC-865F-4429-9A56-3A4A79484511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12822E66-E767-4E9B-A916-61C6B02E85F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{DA93664B-1C47-4CFC-BC2B-8CC3DE095223}"/>
   </bookViews>
@@ -33,8 +33,194 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Karl Polen</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8FA6B350-4D64-4FAF-8761-9AD594BBBFF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+assumed sensitivity to stocks
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2E1045F1-164A-447F-8ABE-98954B4A949F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+assumed accounting write down of initial value
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{C4DDB586-F172-4E94-90A0-CE9E8F834CCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+initial values
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{2F63FAD2-BE06-4724-AF19-99D7FE2DD5AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+this line is where you put stock rebalance trade
+negative for sell, plus for buy
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{D4BC1CAE-65F5-42AE-8A7A-CB205C657A92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sensitivity for extra capital calls
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A78" authorId="0" shapeId="0" xr:uid="{92FC9B5A-DE44-4E94-A5F7-E2FF9BD7CF68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+needed for real estate plus are hard numbers provided by RCLCO, not needed for credit because NAVs are calculated
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{3EA87B7E-F0E9-4B8A-A88A-B7855B6BBF78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Karl Polen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+extra return on incremental investments
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Credit</t>
   </si>
@@ -87,9 +273,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>multiplier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Real Estate </t>
   </si>
   <si>
@@ -140,6 +323,21 @@
   <si>
     <t>Cash Flow assumptions from portfolio managers</t>
   </si>
+  <si>
+    <t>Additional Mthly Cap Calls</t>
+  </si>
+  <si>
+    <t>RE Extra Capital Calls</t>
+  </si>
+  <si>
+    <t>RE Extra NAV</t>
+  </si>
+  <si>
+    <t>Delta Return</t>
+  </si>
+  <si>
+    <t>Analysis of Extra Capital Calls in RE</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +349,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;\(&quot;$&quot;#,##0\);&quot;-&quot;"/>
     <numFmt numFmtId="167" formatCode="_(#,##0.0%_);\(#,##0.0%\);_(&quot;–&quot;_)_%;_(@_)_%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +407,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -284,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,6 +544,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA9CCBE-3CFF-4B4A-B418-6B7BD7E1A6DB}">
-  <dimension ref="A1:AD77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA9CCBE-3CFF-4B4A-B418-6B7BD7E1A6DB}">
+  <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -643,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
@@ -1194,7 +1412,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1213,11 +1431,11 @@
         <v>19128</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*D3/C3+D57</f>
+        <f>C10*D3/C3+D58</f>
         <v>17180.32</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:AB10" si="9">D10*E3/D3+E57</f>
+        <f t="shared" ref="E10:AB10" si="9">D10*E3/D3+E58</f>
         <v>16083.703829787233</v>
       </c>
       <c r="F10" s="1">
@@ -1321,11 +1539,11 @@
         <v>8711</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*(1+D70/12)+D58</f>
+        <f>C11*(1+D71/12)+D59</f>
         <v>8829.0733333333319</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:AB11" si="10">D11*(1+E70/12)+E58</f>
+        <f t="shared" ref="E11:AB11" si="10">D11*(1+E71/12)+E59</f>
         <v>8947.9338222222195</v>
       </c>
       <c r="F11" s="1">
@@ -1429,11 +1647,11 @@
         <v>6684</v>
       </c>
       <c r="D12" s="10">
-        <f>D73</f>
+        <f>D74+D80</f>
         <v>6698</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:AB12" si="11">E73</f>
+        <f t="shared" ref="E12:AB12" si="11">E74+E80</f>
         <v>6838.820010419824</v>
       </c>
       <c r="F12" s="1">
@@ -1538,11 +1756,11 @@
         <v>4161</v>
       </c>
       <c r="D13" s="1">
-        <f>C13*(1+D$71/12)+D$54+D$60</f>
+        <f>C13*(1+D$72/12)+D$55+D$61</f>
         <v>4717.2034246560142</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:AB13" si="12">D13*(1+E$71/12)+E$54+E$60</f>
+        <f t="shared" ref="E13:AB13" si="12">D13*(1+E$72/12)+E$55+E$61</f>
         <v>4473.8703521659072</v>
       </c>
       <c r="F13" s="1">
@@ -2091,7 +2309,7 @@
         <v>4717.2034246560142</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:AB20" si="17">D20*(1+E71/12)+E54+E60</f>
+        <f t="shared" ref="E20:AB20" si="17">D20*(1+E72/12)+E55+E61</f>
         <v>4473.8703521659072</v>
       </c>
       <c r="F20" s="1">
@@ -2326,7 +2544,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2357,7 +2575,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="8">
@@ -2463,7 +2681,7 @@
     </row>
     <row r="25" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="8">
@@ -2568,3133 +2786,3408 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="19"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="8">
-        <f>D21/(C21+D54)-1</f>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8">
+        <f>D21/(C21+D55)-1</f>
         <v>-4.1895752931881525E-2</v>
       </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:AB26" si="21">E21/(D21+E54)-1</f>
+      <c r="E27" s="8">
+        <f t="shared" ref="E27:AB27" si="21">E21/(D21+E55)-1</f>
         <v>-3.9845487009633196E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <f t="shared" si="21"/>
         <v>-4.171588023045103E-2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <f t="shared" si="21"/>
         <v>-4.4285184227284335E-2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <f t="shared" si="21"/>
         <v>-6.365592775369977E-2</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <f t="shared" si="21"/>
         <v>3.5974688480213457E-2</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <f t="shared" si="21"/>
         <v>4.3724118696486292E-2</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K27" s="8">
         <f t="shared" si="21"/>
         <v>4.2192490967826179E-2</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L27" s="8">
         <f t="shared" si="21"/>
         <v>4.1280097070768962E-2</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M27" s="8">
         <f t="shared" si="21"/>
         <v>3.8966337036435705E-2</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N27" s="8">
         <f t="shared" si="21"/>
         <v>3.7500063540110373E-2</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="21"/>
         <v>3.6587754419331819E-2</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P27" s="8">
         <f t="shared" si="21"/>
         <v>3.4934539809903908E-2</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q27" s="8">
         <f t="shared" si="21"/>
         <v>3.3752412061871295E-2</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R27" s="8">
         <f t="shared" si="21"/>
         <v>3.2936138154898043E-2</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S27" s="8">
         <f t="shared" si="21"/>
         <v>3.1442957577384689E-2</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T27" s="8">
         <f t="shared" si="21"/>
         <v>3.0466099784696832E-2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U27" s="8">
         <f t="shared" si="21"/>
         <v>2.9552543132011166E-2</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V27" s="8">
         <f t="shared" si="21"/>
         <v>2.3890091876967334E-2</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W27" s="8">
         <f t="shared" si="21"/>
         <v>5.9503628678401199E-3</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X27" s="8">
         <f t="shared" si="21"/>
         <v>5.9548341246662417E-3</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Y27" s="8">
         <f t="shared" si="21"/>
         <v>5.941538135026736E-3</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z27" s="8">
         <f t="shared" si="21"/>
         <v>5.9707809847187043E-3</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AA27" s="8">
         <f t="shared" si="21"/>
         <v>6.0029221241271191E-3</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AB27" s="8">
         <f t="shared" si="21"/>
         <v>6.0127384064108114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-    </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A28" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A30" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <f>C17/C$21</f>
         <v>0.50532049965306369</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" ref="D30:AB30" si="22">D17/D$21</f>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:AB31" si="22">D17/D$21</f>
         <v>0.47250442631991285</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <f t="shared" si="22"/>
         <v>0.45949368292226439</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <f t="shared" si="22"/>
         <v>0.44559151855992624</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <f t="shared" si="22"/>
         <v>0.43090740807557876</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <f t="shared" si="22"/>
         <v>0.40965911924600901</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <f t="shared" si="22"/>
         <v>0.50569976015362628</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <f t="shared" si="22"/>
         <v>0.51431459636712651</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K31" s="8">
         <f t="shared" si="22"/>
         <v>0.52026631411538449</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L31" s="8">
         <f t="shared" si="22"/>
         <v>0.52392616719237506</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M31" s="8">
         <f t="shared" si="22"/>
         <v>0.5266057960902234</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N31" s="8">
         <f t="shared" si="22"/>
         <v>0.52819777686563929</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O31" s="8">
         <f t="shared" si="22"/>
         <v>0.52875442122564431</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P31" s="8">
         <f t="shared" si="22"/>
         <v>0.52897076944303711</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q31" s="8">
         <f t="shared" si="22"/>
         <v>0.52876289658647246</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R31" s="8">
         <f t="shared" si="22"/>
         <v>0.52811152493738278</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S31" s="8">
         <f t="shared" si="22"/>
         <v>0.52752896717839204</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T31" s="8">
         <f t="shared" si="22"/>
         <v>0.52679527680705973</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U31" s="8">
         <f t="shared" si="22"/>
         <v>0.52596644729498465</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V31" s="8">
         <f t="shared" si="22"/>
         <v>0.52655121122370396</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W31" s="8">
         <f t="shared" si="22"/>
         <v>0.52029769294606565</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X31" s="8">
         <f t="shared" si="22"/>
         <v>0.51559115027215785</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Y31" s="8">
         <f t="shared" si="22"/>
         <v>0.51205637601985921</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z31" s="8">
         <f t="shared" si="22"/>
         <v>0.50938069146361209</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AA31" s="8">
         <f t="shared" si="22"/>
         <v>0.50734931195455268</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB31" s="8">
         <f t="shared" si="22"/>
         <v>0.50581345454255411</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <f>C18/C$21</f>
         <v>0.21134004777855595</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" ref="D31:AB31" si="23">D18/D$21</f>
+      <c r="D32" s="8">
+        <f t="shared" ref="D32:AB32" si="23">D18/D$21</f>
         <v>0.21750918104674208</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <f t="shared" si="23"/>
         <v>0.22295019172363445</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <f t="shared" si="23"/>
         <v>0.22847015801311837</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="23"/>
         <v>0.23327325303345173</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="23"/>
         <v>0.23909015404095713</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="23"/>
         <v>0.2407219054534232</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <f t="shared" si="23"/>
         <v>0.24014888424138278</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="23"/>
         <v>0.23954800804548707</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L32" s="8">
         <f t="shared" si="23"/>
         <v>0.23881397129213069</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M32" s="8">
         <f t="shared" si="23"/>
         <v>0.23829974034271326</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N32" s="8">
         <f t="shared" si="23"/>
         <v>0.23783826169021233</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="23"/>
         <v>0.23732636340387639</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P32" s="8">
         <f t="shared" si="23"/>
         <v>0.23734571708828761</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q32" s="8">
         <f t="shared" si="23"/>
         <v>0.23741417411590077</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R32" s="8">
         <f t="shared" si="23"/>
         <v>0.23660125122045575</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S32" s="8">
         <f t="shared" si="23"/>
         <v>0.23595005893478027</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T32" s="8">
         <f t="shared" si="23"/>
         <v>0.23535484392085501</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U32" s="8">
         <f t="shared" si="23"/>
         <v>0.23481240966311273</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V32" s="8">
         <f t="shared" si="23"/>
         <v>0.23321073503746526</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W32" s="8">
         <f t="shared" si="23"/>
         <v>0.234071918621302</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X32" s="8">
         <f t="shared" si="23"/>
         <v>0.23493514453633801</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y32" s="8">
         <f t="shared" si="23"/>
         <v>0.23580456467959501</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z32" s="8">
         <f t="shared" si="23"/>
         <v>0.23667021411075018</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AA32" s="8">
         <f t="shared" si="23"/>
         <v>0.23753131744476069</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB32" s="8">
         <f t="shared" si="23"/>
         <v>0.23839306469760091</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="8">
         <f>C19/C$21</f>
         <v>0.17117144802666798</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32:AB32" si="24">D19/D$21</f>
+      <c r="D33" s="8">
+        <f t="shared" ref="D33:AB33" si="24">D19/D$21</f>
         <v>0.1768696044078516</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <f t="shared" si="24"/>
         <v>0.18565736956194204</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <f t="shared" si="24"/>
         <v>0.1917961374177008</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <f t="shared" si="24"/>
         <v>0.20210089397691486</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <f t="shared" si="24"/>
         <v>0.21556587684663059</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="8">
         <f t="shared" si="24"/>
         <v>0.21314303348846417</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="8">
         <f t="shared" si="24"/>
         <v>0.2111994315180391</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K33" s="8">
         <f t="shared" si="24"/>
         <v>0.20937783783224365</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L33" s="8">
         <f t="shared" si="24"/>
         <v>0.20109043532123655</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M33" s="8">
         <f t="shared" si="24"/>
         <v>0.19946372143462873</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N33" s="8">
         <f t="shared" si="24"/>
         <v>0.19798513731186854</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O33" s="8">
         <f t="shared" si="24"/>
         <v>0.18855662740177725</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P33" s="8">
         <f t="shared" si="24"/>
         <v>0.18900823586239285</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q33" s="8">
         <f t="shared" si="24"/>
         <v>0.1895212283469408</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R33" s="8">
         <f t="shared" si="24"/>
         <v>0.18164134497885584</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S33" s="8">
         <f t="shared" si="24"/>
         <v>0.18316890006101533</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T33" s="8">
         <f t="shared" si="24"/>
         <v>0.18472097396377143</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U33" s="8">
         <f t="shared" si="24"/>
         <v>0.1856350106442437</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V33" s="8">
         <f t="shared" si="24"/>
         <v>0.18464124434585527</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W33" s="8">
         <f t="shared" si="24"/>
         <v>0.18682451108158826</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X33" s="8">
         <f t="shared" si="24"/>
         <v>0.18636254583604872</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y33" s="8">
         <f t="shared" si="24"/>
         <v>0.19034662538551539</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z33" s="8">
         <f t="shared" si="24"/>
         <v>0.19433726485828448</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA33" s="8">
         <f t="shared" si="24"/>
         <v>0.19551077213768961</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AB33" s="8">
         <f t="shared" si="24"/>
         <v>0.19772774802525608</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C34" s="8">
         <f>C20/C$21</f>
         <v>0.11216800454171243</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" ref="D33:AB33" si="25">D20/D$21</f>
+      <c r="D34" s="8">
+        <f t="shared" ref="D34:AB34" si="25">D20/D$21</f>
         <v>0.13311678822549333</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="25"/>
         <v>0.13189875579215921</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <f t="shared" si="25"/>
         <v>0.13414218600925445</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="25"/>
         <v>0.1337184449140546</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="25"/>
         <v>0.13568484986640333</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <f t="shared" si="25"/>
         <v>4.0435300904486396E-2</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="25"/>
         <v>3.433708787345164E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K34" s="8">
         <f t="shared" si="25"/>
         <v>3.0807840006884666E-2</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L34" s="8">
         <f t="shared" si="25"/>
         <v>3.616942619425758E-2</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M34" s="8">
         <f t="shared" si="25"/>
         <v>3.5630742132434674E-2</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N34" s="8">
         <f t="shared" si="25"/>
         <v>3.5978824132279881E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="25"/>
         <v>4.5362587968702101E-2</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P34" s="8">
         <f t="shared" si="25"/>
         <v>4.4675277606282343E-2</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q34" s="8">
         <f t="shared" si="25"/>
         <v>4.4301700950686022E-2</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R34" s="8">
         <f t="shared" si="25"/>
         <v>5.3645878863305518E-2</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S34" s="8">
         <f t="shared" si="25"/>
         <v>5.3352073825812453E-2</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T34" s="8">
         <f t="shared" si="25"/>
         <v>5.312890530831392E-2</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U34" s="8">
         <f t="shared" si="25"/>
         <v>5.35861323976589E-2</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V34" s="8">
         <f t="shared" si="25"/>
         <v>5.5596809392975524E-2</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W34" s="8">
         <f t="shared" si="25"/>
         <v>5.880587735104402E-2</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X34" s="8">
         <f t="shared" si="25"/>
         <v>6.3111159355455471E-2</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Y34" s="8">
         <f t="shared" si="25"/>
         <v>6.1792433915030337E-2</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z34" s="8">
         <f t="shared" si="25"/>
         <v>5.9611829567353294E-2</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA34" s="8">
         <f t="shared" si="25"/>
         <v>5.9608598462996973E-2</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AB34" s="8">
         <f t="shared" si="25"/>
         <v>5.806573273458894E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A36" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="9">
-        <f>D36</f>
+      <c r="C37" s="9">
+        <f>D37</f>
         <v>0.52333333333333332</v>
       </c>
-      <c r="D36" s="8">
-        <f>0.5+(0.2-D38)*5/6</f>
+      <c r="D37" s="8">
+        <f>0.5+(0.2-D39)*5/6</f>
         <v>0.52333333333333332</v>
       </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36:AB36" si="26">0.5+(0.2-E38)*5/6</f>
+      <c r="E37" s="8">
+        <f t="shared" ref="E37:AB37" si="26">0.5+(0.2-E39)*5/6</f>
         <v>0.51416666666666666</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="8">
         <f t="shared" si="26"/>
         <v>0.51</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <f t="shared" si="26"/>
         <v>0.50416666666666665</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Y37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="Z37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AA36" s="8">
+      <c r="AA37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AB37" s="8">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <f t="shared" ref="C37:C39" si="27">D37</f>
-        <v>0.2</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="R37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="T37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="U37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="W37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38:C40" si="27">D38</f>
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="9">
         <f t="shared" si="27"/>
         <v>0.17199999999999999</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>0.183</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>0.188</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>0.19500000000000001</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>0.2</v>
       </c>
-      <c r="I38" s="8">
-        <f t="shared" ref="I38:AB38" si="28">MIN(0.2,H38+0.02/20)</f>
+      <c r="I39" s="8">
+        <f t="shared" ref="I39:AB39" si="28">MIN(0.2,H39+0.02/20)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="V38" s="8">
+      <c r="V39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="Z38" s="8">
+      <c r="Z39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="AA38" s="8">
+      <c r="AA39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AB39" s="8">
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="9">
         <f t="shared" si="27"/>
         <v>0.10466666666666667</v>
       </c>
-      <c r="D39" s="8">
-        <f>0.1+(0.2-D38)*1/6</f>
+      <c r="D40" s="8">
+        <f>0.1+(0.2-D39)*1/6</f>
         <v>0.10466666666666667</v>
       </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="E39:AB39" si="29">0.1+(0.2-E38)*1/6</f>
+      <c r="E40" s="8">
+        <f t="shared" ref="E40:AB40" si="29">0.1+(0.2-E39)*1/6</f>
         <v>0.10283333333333335</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <f t="shared" si="29"/>
         <v>0.10200000000000001</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <f t="shared" si="29"/>
         <v>0.10083333333333334</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="Z39" s="8">
+      <c r="Z40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AB40" s="8">
         <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A41" s="21" t="s">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A42" s="21" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="9">
-        <f>C30-C36</f>
-        <v>-1.8012833680269624E-2</v>
-      </c>
-      <c r="D42" s="9">
-        <f t="shared" ref="D42:AB45" si="30">D30-D36</f>
-        <v>-5.0828907013420466E-2</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="30"/>
-        <v>-5.467298374440227E-2</v>
-      </c>
-      <c r="F42" s="9">
-        <f t="shared" si="30"/>
-        <v>-6.4408481440073773E-2</v>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="30"/>
-        <v>-7.3259258591087895E-2</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="30"/>
-        <v>-9.0340880753990993E-2</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="30"/>
-        <v>5.6997601536262765E-3</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="30"/>
-        <v>1.4314596367126509E-2</v>
-      </c>
-      <c r="K42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.0266314115384487E-2</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.3926167192375059E-2</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.6605796090223399E-2</v>
-      </c>
-      <c r="N42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.819777686563929E-2</v>
-      </c>
-      <c r="O42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.8754421225644311E-2</v>
-      </c>
-      <c r="P42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.8970769443037114E-2</v>
-      </c>
-      <c r="Q42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.8762896586472464E-2</v>
-      </c>
-      <c r="R42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.8111524937382781E-2</v>
-      </c>
-      <c r="S42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.7528967178392039E-2</v>
-      </c>
-      <c r="T42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.6795276807059731E-2</v>
-      </c>
-      <c r="U42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.5966447294984651E-2</v>
-      </c>
-      <c r="V42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.6551211223703963E-2</v>
-      </c>
-      <c r="W42" s="9">
-        <f t="shared" si="30"/>
-        <v>2.0297692946065649E-2</v>
-      </c>
-      <c r="X42" s="9">
-        <f t="shared" si="30"/>
-        <v>1.559115027215785E-2</v>
-      </c>
-      <c r="Y42" s="9">
-        <f t="shared" si="30"/>
-        <v>1.2056376019859205E-2</v>
-      </c>
-      <c r="Z42" s="9">
-        <f t="shared" si="30"/>
-        <v>9.3806914636120897E-3</v>
-      </c>
-      <c r="AA42" s="9">
-        <f t="shared" si="30"/>
-        <v>7.3493119545526842E-3</v>
-      </c>
-      <c r="AB42" s="9">
-        <f t="shared" si="30"/>
-        <v>5.8134545425541084E-3</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:R45" si="31">C31-C37</f>
+        <f>C31-C37</f>
+        <v>-1.8012833680269624E-2</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" ref="D43:AB46" si="30">D31-D37</f>
+        <v>-5.0828907013420466E-2</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="30"/>
+        <v>-5.467298374440227E-2</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="30"/>
+        <v>-6.4408481440073773E-2</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="30"/>
+        <v>-7.3259258591087895E-2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="30"/>
+        <v>-9.0340880753990993E-2</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="30"/>
+        <v>5.6997601536262765E-3</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="30"/>
+        <v>1.4314596367126509E-2</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.0266314115384487E-2</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.3926167192375059E-2</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.6605796090223399E-2</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.819777686563929E-2</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.8754421225644311E-2</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.8970769443037114E-2</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.8762896586472464E-2</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.8111524937382781E-2</v>
+      </c>
+      <c r="S43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.7528967178392039E-2</v>
+      </c>
+      <c r="T43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.6795276807059731E-2</v>
+      </c>
+      <c r="U43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.5966447294984651E-2</v>
+      </c>
+      <c r="V43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.6551211223703963E-2</v>
+      </c>
+      <c r="W43" s="9">
+        <f t="shared" si="30"/>
+        <v>2.0297692946065649E-2</v>
+      </c>
+      <c r="X43" s="9">
+        <f t="shared" si="30"/>
+        <v>1.559115027215785E-2</v>
+      </c>
+      <c r="Y43" s="9">
+        <f t="shared" si="30"/>
+        <v>1.2056376019859205E-2</v>
+      </c>
+      <c r="Z43" s="9">
+        <f t="shared" si="30"/>
+        <v>9.3806914636120897E-3</v>
+      </c>
+      <c r="AA43" s="9">
+        <f t="shared" si="30"/>
+        <v>7.3493119545526842E-3</v>
+      </c>
+      <c r="AB43" s="9">
+        <f t="shared" si="30"/>
+        <v>5.8134545425541084E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" ref="C44:R46" si="31">C32-C38</f>
         <v>1.1340047778555934E-2</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <f t="shared" si="31"/>
         <v>1.7509181046742067E-2</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <f t="shared" si="31"/>
         <v>2.2950191723634439E-2</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <f t="shared" si="31"/>
         <v>2.8470158013118363E-2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <f t="shared" si="31"/>
         <v>3.3273253033451716E-2</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <f t="shared" si="31"/>
         <v>3.9090154040957115E-2</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <f t="shared" si="31"/>
         <v>4.0721905453423191E-2</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J44" s="9">
         <f t="shared" si="31"/>
         <v>4.0148884241382771E-2</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K44" s="9">
         <f t="shared" si="31"/>
         <v>3.9548008045487054E-2</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L44" s="9">
         <f t="shared" si="31"/>
         <v>3.8813971292130683E-2</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M44" s="9">
         <f t="shared" si="31"/>
         <v>3.8299740342713245E-2</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N44" s="9">
         <f t="shared" si="31"/>
         <v>3.7838261690212316E-2</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O44" s="9">
         <f t="shared" si="31"/>
         <v>3.7326363403876378E-2</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P44" s="9">
         <f t="shared" si="31"/>
         <v>3.73457170882876E-2</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q44" s="9">
         <f t="shared" si="31"/>
         <v>3.7414174115900756E-2</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R44" s="9">
         <f t="shared" si="31"/>
         <v>3.6601251220455738E-2</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S44" s="9">
         <f t="shared" si="30"/>
         <v>3.595005893478026E-2</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T44" s="9">
         <f t="shared" si="30"/>
         <v>3.5354843920855E-2</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U44" s="9">
         <f t="shared" si="30"/>
         <v>3.481240966311272E-2</v>
       </c>
-      <c r="V43" s="9">
+      <c r="V44" s="9">
         <f t="shared" si="30"/>
         <v>3.3210735037465244E-2</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W44" s="9">
         <f t="shared" si="30"/>
         <v>3.4071918621301989E-2</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X44" s="9">
         <f t="shared" si="30"/>
         <v>3.4935144536338003E-2</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y44" s="9">
         <f t="shared" si="30"/>
         <v>3.5804564679595002E-2</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z44" s="9">
         <f t="shared" si="30"/>
         <v>3.6670214110750166E-2</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA44" s="9">
         <f t="shared" si="30"/>
         <v>3.7531317444760681E-2</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB44" s="9">
         <f t="shared" si="30"/>
         <v>3.8393064697600898E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C45" s="9">
         <f t="shared" si="31"/>
         <v>-8.2855197333200903E-4</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <f t="shared" si="30"/>
         <v>4.8696044078516132E-3</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <f t="shared" si="30"/>
         <v>2.6573695619420412E-3</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <f t="shared" si="30"/>
         <v>3.7961374177007956E-3</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <f t="shared" si="30"/>
         <v>7.1008939769148516E-3</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <f t="shared" si="30"/>
         <v>1.5565876846630577E-2</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I45" s="9">
         <f t="shared" si="30"/>
         <v>1.3143033488464156E-2</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J45" s="9">
         <f t="shared" si="30"/>
         <v>1.1199431518039094E-2</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K45" s="9">
         <f t="shared" si="30"/>
         <v>9.3778378322436351E-3</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L45" s="9">
         <f t="shared" si="30"/>
         <v>1.0904353212365381E-3</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M45" s="9">
         <f t="shared" si="30"/>
         <v>-5.3627856537127871E-4</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N45" s="9">
         <f t="shared" si="30"/>
         <v>-2.0148626881314746E-3</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O45" s="9">
         <f t="shared" si="30"/>
         <v>-1.1443372598222756E-2</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P45" s="9">
         <f t="shared" si="30"/>
         <v>-1.0991764137607163E-2</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q45" s="9">
         <f t="shared" si="30"/>
         <v>-1.0478771653059216E-2</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R45" s="9">
         <f t="shared" si="30"/>
         <v>-1.8358655021144171E-2</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S45" s="9">
         <f t="shared" si="30"/>
         <v>-1.6831099938984684E-2</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T45" s="9">
         <f t="shared" si="30"/>
         <v>-1.5279026036228577E-2</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U45" s="9">
         <f t="shared" si="30"/>
         <v>-1.4364989355756308E-2</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V45" s="9">
         <f t="shared" si="30"/>
         <v>-1.535875565414474E-2</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W45" s="9">
         <f t="shared" si="30"/>
         <v>-1.3175488918411749E-2</v>
       </c>
-      <c r="X44" s="9">
+      <c r="X45" s="9">
         <f t="shared" si="30"/>
         <v>-1.363745416395129E-2</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y45" s="9">
         <f t="shared" si="30"/>
         <v>-9.6533746144846222E-3</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z45" s="9">
         <f t="shared" si="30"/>
         <v>-5.6627351417155303E-3</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA45" s="9">
         <f t="shared" si="30"/>
         <v>-4.4892278623104021E-3</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB45" s="9">
         <f t="shared" si="30"/>
         <v>-2.2722519747439274E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="9">
         <f t="shared" si="31"/>
         <v>7.5013378750457549E-3</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <f t="shared" si="30"/>
         <v>2.845012155882666E-2</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <f t="shared" si="30"/>
         <v>2.906542245882586E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <f t="shared" si="30"/>
         <v>3.2142186009254448E-2</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <f t="shared" si="30"/>
         <v>3.2885111580721257E-2</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <f t="shared" si="30"/>
         <v>3.5684849866403329E-2</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="9">
         <f t="shared" si="30"/>
         <v>-5.956469909551361E-2</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J46" s="9">
         <f t="shared" si="30"/>
         <v>-6.5662912126548373E-2</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K46" s="9">
         <f t="shared" si="30"/>
         <v>-6.9192159993115343E-2</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L46" s="9">
         <f t="shared" si="30"/>
         <v>-6.3830573805742419E-2</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M46" s="9">
         <f t="shared" si="30"/>
         <v>-6.4369257867565338E-2</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N46" s="9">
         <f t="shared" si="30"/>
         <v>-6.4021175867720131E-2</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O46" s="9">
         <f t="shared" si="30"/>
         <v>-5.4637412031297905E-2</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P46" s="9">
         <f t="shared" si="30"/>
         <v>-5.5324722393717662E-2</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q46" s="9">
         <f t="shared" si="30"/>
         <v>-5.5698299049313983E-2</v>
       </c>
-      <c r="R45" s="9">
+      <c r="R46" s="9">
         <f t="shared" si="30"/>
         <v>-4.6354121136694487E-2</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S46" s="9">
         <f t="shared" si="30"/>
         <v>-4.6647926174187553E-2</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T46" s="9">
         <f t="shared" si="30"/>
         <v>-4.6871094691686085E-2</v>
       </c>
-      <c r="U45" s="9">
+      <c r="U46" s="9">
         <f t="shared" si="30"/>
         <v>-4.6413867602341105E-2</v>
       </c>
-      <c r="V45" s="9">
+      <c r="V46" s="9">
         <f t="shared" si="30"/>
         <v>-4.4403190607024481E-2</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W46" s="9">
         <f t="shared" si="30"/>
         <v>-4.1194122648955986E-2</v>
       </c>
-      <c r="X45" s="9">
+      <c r="X46" s="9">
         <f t="shared" si="30"/>
         <v>-3.6888840644544535E-2</v>
       </c>
-      <c r="Y45" s="9">
+      <c r="Y46" s="9">
         <f t="shared" si="30"/>
         <v>-3.8207566084969669E-2</v>
       </c>
-      <c r="Z45" s="9">
+      <c r="Z46" s="9">
         <f t="shared" si="30"/>
         <v>-4.0388170432646711E-2</v>
       </c>
-      <c r="AA45" s="9">
+      <c r="AA46" s="9">
         <f t="shared" si="30"/>
         <v>-4.0391401537003033E-2</v>
       </c>
-      <c r="AB45" s="9">
+      <c r="AB46" s="9">
         <f t="shared" si="30"/>
         <v>-4.1934267265411065E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A47" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1">
-        <f>D42*D$21</f>
-        <v>-1801.2025187166473</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" ref="E48:AB51" si="32">E42*E$21</f>
-        <v>-1854.4514659710708</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="32"/>
-        <v>-2086.7447585521418</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="32"/>
-        <v>-2260.6851428522195</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="32"/>
-        <v>-2601.036696348483</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="32"/>
-        <v>169.35789434032154</v>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="32"/>
-        <v>442.28572390712623</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="32"/>
-        <v>650.27582669003584</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="32"/>
-        <v>796.658367268137</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" si="32"/>
-        <v>917.35956244885608</v>
-      </c>
-      <c r="N48" s="1">
-        <f t="shared" si="32"/>
-        <v>1005.4919501761449</v>
-      </c>
-      <c r="O48" s="1">
-        <f t="shared" si="32"/>
-        <v>1059.577298013493</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="32"/>
-        <v>1101.5457948022586</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="32"/>
-        <v>1127.2842593552321</v>
-      </c>
-      <c r="R48" s="1">
-        <f t="shared" si="32"/>
-        <v>1134.8489583541138</v>
-      </c>
-      <c r="S48" s="1">
-        <f t="shared" si="32"/>
-        <v>1143.151521135982</v>
-      </c>
-      <c r="T48" s="1">
-        <f t="shared" si="32"/>
-        <v>1143.5466164231893</v>
-      </c>
-      <c r="U48" s="1">
-        <f t="shared" si="32"/>
-        <v>1137.9831722371187</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" si="32"/>
-        <v>1188.4188880347592</v>
-      </c>
-      <c r="W48" s="1">
-        <f t="shared" si="32"/>
-        <v>911.67450799649362</v>
-      </c>
-      <c r="X48" s="1">
-        <f t="shared" si="32"/>
-        <v>702.72411010309679</v>
-      </c>
-      <c r="Y48" s="1">
-        <f t="shared" si="32"/>
-        <v>545.29939312476893</v>
-      </c>
-      <c r="Z48" s="1">
-        <f t="shared" si="32"/>
-        <v>425.77575847894582</v>
-      </c>
-      <c r="AA48" s="1">
-        <f t="shared" si="32"/>
-        <v>334.76358094125976</v>
-      </c>
-      <c r="AB48" s="1">
-        <f t="shared" si="32"/>
-        <v>265.75364658270121</v>
+      <c r="A48" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ref="D49:S51" si="33">D43*D$21</f>
+        <f>D43*D$21</f>
+        <v>-1801.2025187166473</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ref="E49:AB52" si="32">E43*E$21</f>
+        <v>-1854.4514659710708</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="32"/>
+        <v>-2086.7447585521418</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="32"/>
+        <v>-2260.6851428522195</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="32"/>
+        <v>-2601.036696348483</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="32"/>
+        <v>169.35789434032154</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="32"/>
+        <v>442.28572390712623</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="32"/>
+        <v>650.27582669003584</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="32"/>
+        <v>796.658367268137</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="32"/>
+        <v>917.35956244885608</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="32"/>
+        <v>1005.4919501761449</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="32"/>
+        <v>1059.577298013493</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="32"/>
+        <v>1101.5457948022586</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="32"/>
+        <v>1127.2842593552321</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="32"/>
+        <v>1134.8489583541138</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="32"/>
+        <v>1143.151521135982</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="32"/>
+        <v>1143.5466164231893</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="32"/>
+        <v>1137.9831722371187</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="32"/>
+        <v>1188.4188880347592</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="32"/>
+        <v>911.67450799649362</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" si="32"/>
+        <v>702.72411010309679</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="32"/>
+        <v>545.29939312476893</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="32"/>
+        <v>425.77575847894582</v>
+      </c>
+      <c r="AA49" s="1">
+        <f t="shared" si="32"/>
+        <v>334.76358094125976</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="32"/>
+        <v>265.75364658270121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" ref="D50:S52" si="33">D44*D$21</f>
         <v>620.46545666879399</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <f t="shared" si="33"/>
         <v>778.44693615370056</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <f t="shared" si="33"/>
         <v>922.39331964846212</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <f t="shared" si="33"/>
         <v>1026.7691788548557</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="33"/>
         <v>1125.4586437265025</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I50" s="1">
         <f t="shared" si="33"/>
         <v>1209.9765560713461</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="33"/>
         <v>1240.5015045721448</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K50" s="1">
         <f t="shared" si="33"/>
         <v>1268.9586019098069</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L50" s="1">
         <f t="shared" si="33"/>
         <v>1292.3705977711056</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M50" s="1">
         <f t="shared" si="33"/>
         <v>1320.5631180345265</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N50" s="1">
         <f t="shared" si="33"/>
         <v>1349.257699266652</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O50" s="1">
         <f t="shared" si="33"/>
         <v>1375.4464737713683</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P50" s="1">
         <f t="shared" si="33"/>
         <v>1419.9836042796317</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="33"/>
         <v>1466.3477800586659</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R50" s="1">
         <f t="shared" si="33"/>
         <v>1477.5751907629729</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S50" s="1">
         <f t="shared" si="33"/>
         <v>1492.8407698665681</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T50" s="1">
         <f t="shared" si="32"/>
         <v>1508.8447277846992</v>
       </c>
-      <c r="U49" s="1">
+      <c r="U50" s="1">
         <f t="shared" si="32"/>
         <v>1525.6587060833249</v>
       </c>
-      <c r="V49" s="1">
+      <c r="V50" s="1">
         <f t="shared" si="32"/>
         <v>1486.4958314521493</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W50" s="1">
         <f t="shared" si="32"/>
         <v>1530.3463170967409</v>
       </c>
-      <c r="X49" s="1">
+      <c r="X50" s="1">
         <f t="shared" si="32"/>
         <v>1574.5963528721377</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y50" s="1">
         <f t="shared" si="32"/>
         <v>1619.4092950252639</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z50" s="1">
         <f t="shared" si="32"/>
         <v>1664.4069669228845</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AA50" s="1">
         <f t="shared" si="32"/>
         <v>1709.5638752234693</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AB50" s="1">
         <f t="shared" si="32"/>
         <v>1755.0832937949383</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <f t="shared" si="33"/>
         <v>172.56211553516485</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <f t="shared" si="32"/>
         <v>90.135246739206423</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <f t="shared" si="32"/>
         <v>122.98954550731176</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G51" s="1">
         <f t="shared" si="32"/>
         <v>219.12432398726293</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="32"/>
         <v>448.16274261460222</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="32"/>
         <v>390.52107752893477</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="32"/>
         <v>346.03481294656541</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K51" s="1">
         <f t="shared" si="32"/>
         <v>300.90233548181789</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L51" s="1">
         <f t="shared" si="32"/>
         <v>36.307713460459773</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M51" s="1">
         <f t="shared" si="32"/>
         <v>-18.490717902648019</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N51" s="1">
         <f t="shared" si="32"/>
         <v>-71.847090048264874</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O51" s="1">
         <f t="shared" si="32"/>
         <v>-421.67907754557211</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P51" s="1">
         <f t="shared" si="32"/>
         <v>-417.9361403240012</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q51" s="1">
         <f t="shared" si="32"/>
         <v>-410.68723055615493</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <f t="shared" si="32"/>
         <v>-741.13021523860755</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <f t="shared" si="32"/>
         <v>-698.91824756666767</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="1">
         <f t="shared" si="32"/>
         <v>-652.06561036039</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U51" s="1">
         <f t="shared" si="32"/>
         <v>-629.54766089134603</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V51" s="1">
         <f t="shared" si="32"/>
         <v>-687.45019435501183</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W51" s="1">
         <f t="shared" si="32"/>
         <v>-591.77944061049334</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X51" s="1">
         <f t="shared" si="32"/>
         <v>-614.66714605067318</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y51" s="1">
         <f t="shared" si="32"/>
         <v>-436.61373120859145</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z51" s="1">
         <f t="shared" si="32"/>
         <v>-257.02320126206558</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA51" s="1">
         <f t="shared" si="32"/>
         <v>-204.48580821465163</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB51" s="1">
         <f t="shared" si="32"/>
         <v>-103.87270491628209</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <f t="shared" si="33"/>
         <v>1008.174946512684</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <f t="shared" si="32"/>
         <v>985.86928307816618</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <f t="shared" si="32"/>
         <v>1041.3618933963626</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G52" s="1">
         <f t="shared" si="32"/>
         <v>1014.7916400100991</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="32"/>
         <v>1027.415310007379</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I52" s="1">
         <f t="shared" si="32"/>
         <v>-1769.8555279406019</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="32"/>
         <v>-2028.8220414258365</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K52" s="1">
         <f t="shared" si="32"/>
         <v>-2220.1367640816661</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L52" s="1">
         <f t="shared" si="32"/>
         <v>-2125.336678499707</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M52" s="1">
         <f t="shared" si="32"/>
         <v>-2219.4319625807334</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N52" s="1">
         <f t="shared" si="32"/>
         <v>-2282.9025593945321</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O52" s="1">
         <f t="shared" si="32"/>
         <v>-2013.3446942392882</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P52" s="1">
         <f t="shared" si="32"/>
         <v>-2103.5932587578932</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="32"/>
         <v>-2182.9448088577419</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R52" s="1">
         <f t="shared" si="32"/>
         <v>-1871.2939338784847</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S52" s="1">
         <f t="shared" si="32"/>
         <v>-1937.0740434358797</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T52" s="1">
         <f t="shared" si="32"/>
         <v>-2000.3257338474957</v>
       </c>
-      <c r="U51" s="1">
+      <c r="U52" s="1">
         <f t="shared" si="32"/>
         <v>-2034.0942174290994</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V52" s="1">
         <f t="shared" si="32"/>
         <v>-1987.4645251318973</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W52" s="1">
         <f t="shared" si="32"/>
         <v>-1850.2413844827456</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X52" s="1">
         <f t="shared" si="32"/>
         <v>-1662.6533169245599</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y52" s="1">
         <f t="shared" si="32"/>
         <v>-1728.0949569414449</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="Z52" s="1">
         <f t="shared" si="32"/>
         <v>-1833.1595241397642</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA52" s="1">
         <f t="shared" si="32"/>
         <v>-1839.8416479500806</v>
       </c>
-      <c r="AB51" s="1">
+      <c r="AB52" s="1">
         <f t="shared" si="32"/>
         <v>-1916.9642354613568</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A53" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="A54" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>-110</v>
       </c>
-      <c r="E54" s="6">
-        <f>D54</f>
+      <c r="E55" s="6">
+        <f>D55</f>
         <v>-110</v>
       </c>
-      <c r="F54" s="6">
-        <f t="shared" ref="F54:AB54" si="34">E54</f>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:AB55" si="34">E55</f>
         <v>-110</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="V54" s="6">
+      <c r="V55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="W54" s="6">
+      <c r="W55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="Z55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AA55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
-      <c r="AB54" s="6">
+      <c r="AB55" s="6">
         <f t="shared" si="34"/>
         <v>-110</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="57" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="C57" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>-800</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7">
-        <f>-H48</f>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7">
+        <f>-H49</f>
         <v>2601.036696348483</v>
       </c>
-      <c r="J57" s="7">
-        <f t="shared" ref="J57:AB57" si="35">-0.25*I48</f>
+      <c r="J58" s="7">
+        <f t="shared" ref="J58:AB58" si="35">-0.25*I49</f>
         <v>-42.339473585080384</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K58" s="7">
         <f t="shared" si="35"/>
         <v>-110.57143097678156</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L58" s="7">
         <f t="shared" si="35"/>
         <v>-162.56895667250896</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M58" s="7">
         <f t="shared" si="35"/>
         <v>-199.16459181703425</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N58" s="7">
         <f t="shared" si="35"/>
         <v>-229.33989061221402</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O58" s="7">
         <f t="shared" si="35"/>
         <v>-251.37298754403622</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P58" s="7">
         <f t="shared" si="35"/>
         <v>-264.89432450337324</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q58" s="7">
         <f t="shared" si="35"/>
         <v>-275.38644870056464</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R58" s="7">
         <f t="shared" si="35"/>
         <v>-281.82106483880801</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S58" s="7">
         <f t="shared" si="35"/>
         <v>-283.71223958852846</v>
       </c>
-      <c r="T57" s="7">
+      <c r="T58" s="7">
         <f t="shared" si="35"/>
         <v>-285.78788028399549</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U58" s="7">
         <f t="shared" si="35"/>
         <v>-285.88665410579733</v>
       </c>
-      <c r="V57" s="7">
+      <c r="V58" s="7">
         <f t="shared" si="35"/>
         <v>-284.49579305927966</v>
       </c>
-      <c r="W57" s="7">
+      <c r="W58" s="7">
         <f t="shared" si="35"/>
         <v>-297.10472200868981</v>
       </c>
-      <c r="X57" s="7">
+      <c r="X58" s="7">
         <f t="shared" si="35"/>
         <v>-227.9186269991234</v>
       </c>
-      <c r="Y57" s="7">
+      <c r="Y58" s="7">
         <f t="shared" si="35"/>
         <v>-175.6810275257742</v>
       </c>
-      <c r="Z57" s="7">
+      <c r="Z58" s="7">
         <f t="shared" si="35"/>
         <v>-136.32484828119223</v>
       </c>
-      <c r="AA57" s="7">
+      <c r="AA58" s="7">
         <f t="shared" si="35"/>
         <v>-106.44393961973645</v>
       </c>
-      <c r="AB57" s="7">
+      <c r="AB58" s="7">
         <f t="shared" si="35"/>
         <v>-83.69089523531494</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <f>$C58*D65</f>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>$C59+D66</f>
         <v>60</v>
       </c>
-      <c r="E58">
-        <f t="shared" ref="E58:AB58" si="36">$C58*E65</f>
+      <c r="E59">
+        <f t="shared" ref="E59:AB59" si="36">$C59+E66</f>
         <v>60</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <f t="shared" si="36"/>
         <v>60</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="K58">
+      <c r="K59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="L58">
+      <c r="L59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="M58">
+      <c r="M59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="O58">
+      <c r="O59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="P58">
+      <c r="P59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="Q58">
+      <c r="Q59">
         <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="R58">
+      <c r="R59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="S58">
+      <c r="S59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="T58">
+      <c r="T59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="U58">
+      <c r="U59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="V58">
+      <c r="V59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="W58">
+      <c r="W59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="X58">
+      <c r="X59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="Y58">
+      <c r="Y59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="Z58">
+      <c r="Z59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="AA58">
+      <c r="AA59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
-      <c r="AB58">
+      <c r="AB59">
         <f t="shared" si="36"/>
         <v>-12</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <f>$C59*D67</f>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <f>$C60+D68</f>
         <v>77.264075343985979</v>
       </c>
-      <c r="E59" s="1">
-        <f t="shared" ref="E59:AB59" si="37">$C59*E67</f>
+      <c r="E60" s="1">
+        <f t="shared" ref="E60:AB60" si="37">$C60+E68</f>
         <v>77.264075343985979</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <f t="shared" si="37"/>
         <v>-38.420724610003731</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <f t="shared" si="37"/>
         <v>88.264229770504386</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <f t="shared" si="37"/>
         <v>88.264229770504386</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <f t="shared" si="37"/>
         <v>-27.690693264856108</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="37"/>
         <v>48.869989244407471</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <f t="shared" si="37"/>
         <v>48.869989244407471</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <f t="shared" si="37"/>
         <v>-187.40681773018559</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <f t="shared" si="37"/>
         <v>40.947717772372457</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <f t="shared" si="37"/>
         <v>40.947717772372457</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O60" s="1">
         <f t="shared" si="37"/>
         <v>-271.17992675910909</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P60" s="1">
         <f t="shared" si="37"/>
         <v>104.18917824927996</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q60" s="1">
         <f t="shared" si="37"/>
         <v>104.18917824927996</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R60" s="1">
         <f t="shared" si="37"/>
         <v>-244.10492995940467</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S60" s="1">
         <f t="shared" si="37"/>
         <v>137.70920555017247</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T60" s="1">
         <f t="shared" si="37"/>
         <v>137.70920555017247</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U60" s="1">
         <f t="shared" si="37"/>
         <v>108.74781413635432</v>
       </c>
-      <c r="V59" s="1">
+      <c r="V60" s="1">
         <f t="shared" si="37"/>
         <v>48.387247546232722</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W60" s="1">
         <f t="shared" si="37"/>
         <v>48.387247546232722</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X60" s="1">
         <f t="shared" si="37"/>
         <v>-71.149117583233945</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y60" s="1">
         <f t="shared" si="37"/>
         <v>129.77878639213947</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="Z60" s="1">
         <f t="shared" si="37"/>
         <v>129.77878639213947</v>
       </c>
-      <c r="AA59" s="1">
+      <c r="AA60" s="1">
         <f t="shared" si="37"/>
         <v>1.2004611079354532</v>
       </c>
-      <c r="AB59" s="1">
+      <c r="AB60" s="1">
         <f t="shared" si="37"/>
         <v>48.754060739675957</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="1">
-        <f>-SUM(D57:D59)</f>
+      <c r="D61" s="1">
+        <f>-SUM(D58:D60)</f>
         <v>662.73592465601405</v>
       </c>
-      <c r="E60" s="1">
-        <f t="shared" ref="E60:AB60" si="38">-SUM(E57:E59)</f>
+      <c r="E61" s="1">
+        <f t="shared" ref="E61:AB61" si="38">-SUM(E58:E60)</f>
         <v>-137.26407534398598</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="38"/>
         <v>-21.579275389996269</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <f t="shared" si="38"/>
         <v>-113.26422977050439</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="38"/>
         <v>-113.26422977050439</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="38"/>
         <v>-2598.3460030836268</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="38"/>
         <v>-31.530515659327087</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K61" s="1">
         <f t="shared" si="38"/>
         <v>36.701441732374086</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L61" s="1">
         <f t="shared" si="38"/>
         <v>324.97577440269458</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M61" s="1">
         <f t="shared" si="38"/>
         <v>133.21687404466178</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N61" s="1">
         <f t="shared" si="38"/>
         <v>163.39217283984158</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O61" s="1">
         <f t="shared" si="38"/>
         <v>497.55291430314531</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P61" s="1">
         <f t="shared" si="38"/>
         <v>135.70514625409328</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q61" s="1">
         <f t="shared" si="38"/>
         <v>146.19727045128468</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R61" s="1">
         <f t="shared" si="38"/>
         <v>537.92599479821274</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S61" s="1">
         <f t="shared" si="38"/>
         <v>158.00303403835599</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T61" s="1">
         <f t="shared" si="38"/>
         <v>160.07867473382302</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U61" s="1">
         <f t="shared" si="38"/>
         <v>189.13883996944301</v>
       </c>
-      <c r="V60" s="1">
+      <c r="V61" s="1">
         <f t="shared" si="38"/>
         <v>248.10854551304695</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W61" s="1">
         <f t="shared" si="38"/>
         <v>260.71747446245706</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X61" s="1">
         <f t="shared" si="38"/>
         <v>311.06774458235736</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y61" s="1">
         <f t="shared" si="38"/>
         <v>57.902241133634732</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="Z61" s="1">
         <f t="shared" si="38"/>
         <v>18.546061889052766</v>
       </c>
-      <c r="AA60" s="1">
+      <c r="AA61" s="1">
         <f t="shared" si="38"/>
         <v>117.243478511801</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AB61" s="1">
         <f t="shared" si="38"/>
         <v>46.936834495638983</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A64" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65">
+      <c r="A65" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>60</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>60</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>60</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>25</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>25</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>25</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>25</v>
       </c>
-      <c r="K65">
+      <c r="K66">
         <v>25</v>
       </c>
-      <c r="L65">
+      <c r="L66">
         <v>25</v>
       </c>
-      <c r="M65">
+      <c r="M66">
         <v>25</v>
       </c>
-      <c r="N65">
+      <c r="N66">
         <v>25</v>
       </c>
-      <c r="O65">
+      <c r="O66">
         <v>25</v>
       </c>
-      <c r="P65">
+      <c r="P66">
         <v>25</v>
       </c>
-      <c r="Q65">
+      <c r="Q66">
         <v>25</v>
       </c>
-      <c r="R65">
+      <c r="R66">
         <v>-12</v>
       </c>
-      <c r="S65">
+      <c r="S66">
         <v>-12</v>
       </c>
-      <c r="T65">
+      <c r="T66">
         <v>-12</v>
       </c>
-      <c r="U65">
+      <c r="U66">
         <v>-12</v>
       </c>
-      <c r="V65">
+      <c r="V66">
         <v>-12</v>
       </c>
-      <c r="W65">
+      <c r="W66">
         <v>-12</v>
       </c>
-      <c r="X65">
+      <c r="X66">
         <v>-12</v>
       </c>
-      <c r="Y65">
+      <c r="Y66">
         <v>-12</v>
       </c>
-      <c r="Z65">
+      <c r="Z66">
         <v>-12</v>
       </c>
-      <c r="AA65">
+      <c r="AA66">
         <v>-12</v>
       </c>
-      <c r="AB65">
+      <c r="AB66">
         <v>-12</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="16">
-        <v>-77.264075343985979</v>
-      </c>
-      <c r="E66" s="17">
-        <v>-77.264075343985979</v>
-      </c>
-      <c r="F66" s="17">
-        <v>38.420724610003731</v>
-      </c>
-      <c r="G66" s="17">
-        <v>-88.264229770504386</v>
-      </c>
-      <c r="H66" s="17">
-        <v>-88.264229770504386</v>
-      </c>
-      <c r="I66" s="17">
-        <v>27.690693264856108</v>
-      </c>
-      <c r="J66" s="17">
-        <v>-48.869989244407471</v>
-      </c>
-      <c r="K66" s="17">
-        <v>-48.869989244407471</v>
-      </c>
-      <c r="L66" s="17">
-        <v>187.40681773018559</v>
-      </c>
-      <c r="M66" s="17">
-        <v>-40.947717772372457</v>
-      </c>
-      <c r="N66" s="17">
-        <v>-40.947717772372457</v>
-      </c>
-      <c r="O66" s="17">
-        <v>271.17992675910909</v>
-      </c>
-      <c r="P66" s="17">
-        <v>-104.18917824927996</v>
-      </c>
-      <c r="Q66" s="17">
-        <v>-104.18917824927996</v>
-      </c>
-      <c r="R66" s="17">
-        <v>244.10492995940467</v>
-      </c>
-      <c r="S66" s="17">
-        <v>-137.70920555017247</v>
-      </c>
-      <c r="T66" s="17">
-        <v>-137.70920555017247</v>
-      </c>
-      <c r="U66" s="17">
-        <v>-108.74781413635432</v>
-      </c>
-      <c r="V66" s="17">
-        <v>-48.387247546232722</v>
-      </c>
-      <c r="W66" s="17">
-        <v>-48.387247546232722</v>
-      </c>
-      <c r="X66" s="17">
-        <v>71.149117583233945</v>
-      </c>
-      <c r="Y66" s="17">
-        <v>-129.77878639213947</v>
-      </c>
-      <c r="Z66" s="17">
-        <v>-129.77878639213947</v>
-      </c>
-      <c r="AA66" s="17">
-        <v>-1.2004611079354532</v>
-      </c>
-      <c r="AB66" s="17">
-        <v>-48.754060739675957</v>
-      </c>
-      <c r="AC66" s="17">
-        <v>-48.754060739675957</v>
-      </c>
-      <c r="AD66" s="18">
-        <v>164.43609305060778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:30" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="1">
-        <f>D66*-1</f>
+      <c r="D67" s="16">
+        <v>-77.264075343985979</v>
+      </c>
+      <c r="E67" s="17">
+        <v>-77.264075343985979</v>
+      </c>
+      <c r="F67" s="17">
+        <v>38.420724610003731</v>
+      </c>
+      <c r="G67" s="17">
+        <v>-88.264229770504386</v>
+      </c>
+      <c r="H67" s="17">
+        <v>-88.264229770504386</v>
+      </c>
+      <c r="I67" s="17">
+        <v>27.690693264856108</v>
+      </c>
+      <c r="J67" s="17">
+        <v>-48.869989244407471</v>
+      </c>
+      <c r="K67" s="17">
+        <v>-48.869989244407471</v>
+      </c>
+      <c r="L67" s="17">
+        <v>187.40681773018559</v>
+      </c>
+      <c r="M67" s="17">
+        <v>-40.947717772372457</v>
+      </c>
+      <c r="N67" s="17">
+        <v>-40.947717772372457</v>
+      </c>
+      <c r="O67" s="17">
+        <v>271.17992675910909</v>
+      </c>
+      <c r="P67" s="17">
+        <v>-104.18917824927996</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>-104.18917824927996</v>
+      </c>
+      <c r="R67" s="17">
+        <v>244.10492995940467</v>
+      </c>
+      <c r="S67" s="17">
+        <v>-137.70920555017247</v>
+      </c>
+      <c r="T67" s="17">
+        <v>-137.70920555017247</v>
+      </c>
+      <c r="U67" s="17">
+        <v>-108.74781413635432</v>
+      </c>
+      <c r="V67" s="17">
+        <v>-48.387247546232722</v>
+      </c>
+      <c r="W67" s="17">
+        <v>-48.387247546232722</v>
+      </c>
+      <c r="X67" s="17">
+        <v>71.149117583233945</v>
+      </c>
+      <c r="Y67" s="17">
+        <v>-129.77878639213947</v>
+      </c>
+      <c r="Z67" s="17">
+        <v>-129.77878639213947</v>
+      </c>
+      <c r="AA67" s="17">
+        <v>-1.2004611079354532</v>
+      </c>
+      <c r="AB67" s="17">
+        <v>-48.754060739675957</v>
+      </c>
+      <c r="AC67" s="17">
+        <v>-48.754060739675957</v>
+      </c>
+      <c r="AD67" s="18">
+        <v>164.43609305060778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1">
+        <f>D67*-1</f>
         <v>77.264075343985979</v>
       </c>
-      <c r="E67" s="1">
-        <f t="shared" ref="E67:AD67" si="39">E66*-1</f>
+      <c r="E68" s="1">
+        <f t="shared" ref="E68:AD68" si="39">E67*-1</f>
         <v>77.264075343985979</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F68" s="1">
         <f t="shared" si="39"/>
         <v>-38.420724610003731</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G68" s="1">
         <f t="shared" si="39"/>
         <v>88.264229770504386</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H68" s="1">
         <f t="shared" si="39"/>
         <v>88.264229770504386</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I68" s="1">
         <f t="shared" si="39"/>
         <v>-27.690693264856108</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J68" s="1">
         <f t="shared" si="39"/>
         <v>48.869989244407471</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K68" s="1">
         <f t="shared" si="39"/>
         <v>48.869989244407471</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L68" s="1">
         <f t="shared" si="39"/>
         <v>-187.40681773018559</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M68" s="1">
         <f t="shared" si="39"/>
         <v>40.947717772372457</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N68" s="1">
         <f t="shared" si="39"/>
         <v>40.947717772372457</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O68" s="1">
         <f t="shared" si="39"/>
         <v>-271.17992675910909</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P68" s="1">
         <f t="shared" si="39"/>
         <v>104.18917824927996</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q68" s="1">
         <f t="shared" si="39"/>
         <v>104.18917824927996</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R68" s="1">
         <f t="shared" si="39"/>
         <v>-244.10492995940467</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S68" s="1">
         <f t="shared" si="39"/>
         <v>137.70920555017247</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T68" s="1">
         <f t="shared" si="39"/>
         <v>137.70920555017247</v>
       </c>
-      <c r="U67" s="1">
+      <c r="U68" s="1">
         <f t="shared" si="39"/>
         <v>108.74781413635432</v>
       </c>
-      <c r="V67" s="1">
+      <c r="V68" s="1">
         <f t="shared" si="39"/>
         <v>48.387247546232722</v>
       </c>
-      <c r="W67" s="1">
+      <c r="W68" s="1">
         <f t="shared" si="39"/>
         <v>48.387247546232722</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X68" s="1">
         <f t="shared" si="39"/>
         <v>-71.149117583233945</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Y68" s="1">
         <f t="shared" si="39"/>
         <v>129.77878639213947</v>
       </c>
-      <c r="Z67" s="1">
+      <c r="Z68" s="1">
         <f t="shared" si="39"/>
         <v>129.77878639213947</v>
       </c>
-      <c r="AA67" s="1">
+      <c r="AA68" s="1">
         <f t="shared" si="39"/>
         <v>1.2004611079354532</v>
       </c>
-      <c r="AB67" s="1">
+      <c r="AB68" s="1">
         <f t="shared" si="39"/>
         <v>48.754060739675957</v>
       </c>
-      <c r="AC67" s="1">
+      <c r="AC68" s="1">
         <f t="shared" si="39"/>
         <v>48.754060739675957</v>
       </c>
-      <c r="AD67" s="1">
+      <c r="AD68" s="1">
         <f t="shared" si="39"/>
         <v>-164.43609305060778</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70">
-        <v>0.08</v>
-      </c>
-      <c r="E70">
-        <v>0.08</v>
-      </c>
-      <c r="F70">
-        <v>0.08</v>
-      </c>
-      <c r="G70">
-        <v>0.08</v>
-      </c>
-      <c r="H70">
-        <v>0.08</v>
-      </c>
-      <c r="I70">
-        <v>0.08</v>
-      </c>
-      <c r="J70">
-        <v>0.08</v>
-      </c>
-      <c r="K70">
-        <v>0.08</v>
-      </c>
-      <c r="L70">
-        <v>0.08</v>
-      </c>
-      <c r="M70">
-        <v>0.08</v>
-      </c>
-      <c r="N70">
-        <v>0.08</v>
-      </c>
-      <c r="O70">
-        <v>0.08</v>
-      </c>
-      <c r="P70">
-        <v>0.1</v>
-      </c>
-      <c r="Q70">
-        <v>0.1</v>
-      </c>
-      <c r="R70">
-        <v>0.1</v>
-      </c>
-      <c r="S70">
-        <v>0.1</v>
-      </c>
-      <c r="T70">
-        <v>0.1</v>
-      </c>
-      <c r="U70">
-        <v>0.1</v>
-      </c>
-      <c r="V70">
-        <v>0.1</v>
-      </c>
-      <c r="W70">
-        <v>0.1</v>
-      </c>
-      <c r="X70">
-        <v>0.1</v>
-      </c>
-      <c r="Y70">
-        <v>0.1</v>
-      </c>
-      <c r="Z70">
-        <v>0.1</v>
-      </c>
-      <c r="AA70">
-        <v>0.1</v>
-      </c>
-      <c r="AB70">
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71">
+        <v>0.08</v>
+      </c>
+      <c r="E71">
+        <v>0.08</v>
+      </c>
+      <c r="F71">
+        <v>0.08</v>
+      </c>
+      <c r="G71">
+        <v>0.08</v>
+      </c>
+      <c r="H71">
+        <v>0.08</v>
+      </c>
+      <c r="I71">
+        <v>0.08</v>
+      </c>
+      <c r="J71">
+        <v>0.08</v>
+      </c>
+      <c r="K71">
+        <v>0.08</v>
+      </c>
+      <c r="L71">
+        <v>0.08</v>
+      </c>
+      <c r="M71">
+        <v>0.08</v>
+      </c>
+      <c r="N71">
+        <v>0.08</v>
+      </c>
+      <c r="O71">
+        <v>0.08</v>
+      </c>
+      <c r="P71">
+        <v>0.1</v>
+      </c>
+      <c r="Q71">
+        <v>0.1</v>
+      </c>
+      <c r="R71">
+        <v>0.1</v>
+      </c>
+      <c r="S71">
+        <v>0.1</v>
+      </c>
+      <c r="T71">
+        <v>0.1</v>
+      </c>
+      <c r="U71">
+        <v>0.1</v>
+      </c>
+      <c r="V71">
+        <v>0.1</v>
+      </c>
+      <c r="W71">
+        <v>0.1</v>
+      </c>
+      <c r="X71">
+        <v>0.1</v>
+      </c>
+      <c r="Y71">
+        <v>0.1</v>
+      </c>
+      <c r="Z71">
+        <v>0.1</v>
+      </c>
+      <c r="AA71">
+        <v>0.1</v>
+      </c>
+      <c r="AB71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
         <v>0.01</v>
       </c>
-      <c r="E71">
-        <f>D71</f>
+      <c r="E72">
+        <f>D72</f>
         <v>0.01</v>
       </c>
-      <c r="F71">
-        <f t="shared" ref="F71:AB71" si="40">E71</f>
+      <c r="F72">
+        <f t="shared" ref="F72:AB72" si="40">E72</f>
         <v>0.01</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="I71">
+      <c r="I72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="J71">
+      <c r="J72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="K71">
+      <c r="K72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="L71">
+      <c r="L72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="M71">
+      <c r="M72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="N71">
+      <c r="N72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="O71">
+      <c r="O72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="P71">
+      <c r="P72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="Q71">
+      <c r="Q72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="R71">
+      <c r="R72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="S71">
+      <c r="S72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="T71">
+      <c r="T72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="U71">
+      <c r="U72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="V71">
+      <c r="V72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="W71">
+      <c r="W72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="X71">
+      <c r="X72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="Y71">
+      <c r="Y72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="Z71">
+      <c r="Z72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="AA71">
+      <c r="AA72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
-      <c r="AB71">
+      <c r="AB72">
         <f t="shared" si="40"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="73" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="14">
+    <row r="73" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="74" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="14">
         <v>6698</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>6838.820010419824</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>6865.2914328055767</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>7018.6989914175401</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>7173.5622025877719</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>7213.9399556666222</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>7331.261527392865</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>7449.6963392199787</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>7332.9781474781721</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>7443.5069764857872</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>7555.0845906651575</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>7355.5932971901293</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>7529.578177147454</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>7705.2139636044421</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <v>7534.2222134623371</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S74" s="11">
         <v>7743.4220935191897</v>
       </c>
-      <c r="T73" s="11">
+      <c r="T74" s="11">
         <v>7954.6070279198411</v>
       </c>
-      <c r="U73" s="11">
+      <c r="U74" s="11">
         <v>8138.8344610201057</v>
       </c>
-      <c r="V73" s="11">
+      <c r="V74" s="11">
         <v>8264.4494234958056</v>
       </c>
-      <c r="W73" s="11">
+      <c r="W74" s="11">
         <v>8391.2563203399241</v>
       </c>
-      <c r="X73" s="11">
+      <c r="X74" s="11">
         <v>8399.7300964414062</v>
       </c>
-      <c r="Y73" s="11">
+      <c r="Y74" s="11">
         <v>8609.2121824250644</v>
       </c>
-      <c r="Z73" s="11">
+      <c r="Z74" s="11">
         <v>8820.6820005461268</v>
       </c>
-      <c r="AA73" s="11">
+      <c r="AA74" s="11">
         <v>8905.5800866990485</v>
       </c>
-      <c r="AB73" s="11">
+      <c r="AB74" s="11">
         <v>9038.8373528437587</v>
       </c>
-      <c r="AC73" s="11">
+      <c r="AC74" s="11">
         <v>9173.3590695939438</v>
       </c>
-      <c r="AD73" s="15">
+      <c r="AD74" s="15">
         <v>9095.9670812692912</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="8">
-        <f>E73/(E67+D73)-1</f>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="8">
+        <f>E74/(E68+D74)-1</f>
         <v>9.3805841911203114E-3</v>
       </c>
-      <c r="F74" s="8">
-        <f>F73/(F67+E73)-1</f>
+      <c r="F75" s="8">
+        <f>F74/(F68+E74)-1</f>
         <v>9.5424024779200423E-3</v>
       </c>
-      <c r="G74" s="8">
-        <f t="shared" ref="G74:AB74" si="41">G73/(G67+F73)-1</f>
+      <c r="G75" s="8">
+        <f t="shared" ref="G75:AB75" si="41">G74/(G68+F74)-1</f>
         <v>9.3683479363024791E-3</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H75" s="8">
         <f t="shared" si="41"/>
         <v>9.3709478052701467E-3</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I75" s="8">
         <f t="shared" si="41"/>
         <v>9.5255625930161791E-3</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J75" s="8">
         <f t="shared" si="41"/>
         <v>9.4249447529324293E-3</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K75" s="8">
         <f t="shared" si="41"/>
         <v>9.4259597441974652E-3</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L75" s="8">
         <f t="shared" si="41"/>
         <v>9.7336557265039758E-3</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M75" s="8">
         <f t="shared" si="41"/>
         <v>9.4361012717991688E-3</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N75" s="8">
         <f t="shared" si="41"/>
         <v>9.4368794110255561E-3</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="41"/>
         <v>9.842060898918481E-3</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P75" s="8">
         <f t="shared" si="41"/>
         <v>9.3562650034153538E-3</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q75" s="8">
         <f t="shared" si="41"/>
         <v>9.3592855115238738E-3</v>
       </c>
-      <c r="R74" s="8">
+      <c r="R75" s="8">
         <f t="shared" si="41"/>
         <v>9.7992375513618057E-3</v>
       </c>
-      <c r="S74" s="8">
+      <c r="S75" s="8">
         <f t="shared" si="41"/>
         <v>9.3184715298044729E-3</v>
       </c>
-      <c r="T74" s="8">
+      <c r="T75" s="8">
         <f t="shared" si="41"/>
         <v>9.3229926088345128E-3</v>
       </c>
-      <c r="U74" s="8">
+      <c r="U75" s="8">
         <f t="shared" si="41"/>
         <v>9.3608207058220039E-3</v>
       </c>
-      <c r="V74" s="8">
+      <c r="V75" s="8">
         <f t="shared" si="41"/>
         <v>9.4327132791167667E-3</v>
       </c>
-      <c r="W74" s="8">
+      <c r="W75" s="8">
         <f t="shared" si="41"/>
         <v>9.4335606966828855E-3</v>
       </c>
-      <c r="X74" s="8">
+      <c r="X75" s="8">
         <f t="shared" si="41"/>
         <v>9.5699360289895896E-3</v>
       </c>
-      <c r="Y74" s="8">
+      <c r="Y75" s="8">
         <f t="shared" si="41"/>
         <v>9.344418381687758E-3</v>
       </c>
-      <c r="Z74" s="8">
+      <c r="Z75" s="8">
         <f t="shared" si="41"/>
         <v>9.3478791796919314E-3</v>
       </c>
-      <c r="AA74" s="8">
+      <c r="AA75" s="8">
         <f t="shared" si="41"/>
         <v>9.4875017218596369E-3</v>
       </c>
-      <c r="AB74" s="8">
+      <c r="AB75" s="8">
         <f t="shared" si="41"/>
         <v>9.4371288823529298E-3</v>
       </c>
-      <c r="AC74" s="8">
-        <f>AC73/(AC67+AB73)-1</f>
+      <c r="AC75" s="8">
+        <f>AC74/(AC68+AB74)-1</f>
         <v>9.4378864659683259E-3</v>
       </c>
-      <c r="AD74" s="8">
-        <f>AD73/(AD67+AC73)-1</f>
+      <c r="AD75" s="8">
+        <f>AD74/(AD68+AC74)-1</f>
         <v>9.6619878927362013E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>27</v>
-      </c>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13">
-        <f>P73/(D73+SUM(E67:P67))-1</f>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13">
+        <f>P74/(D74+SUM(E68:P68))-1</f>
         <v>0.12198913690320845</v>
       </c>
-      <c r="Q75" s="13">
-        <f t="shared" ref="Q75:AB75" si="42">Q73/(E73+SUM(F67:Q67))-1</f>
+      <c r="Q76" s="13">
+        <f t="shared" ref="Q76:AB76" si="42">Q74/(E74+SUM(F68:Q68))-1</f>
         <v>0.12016139705145923</v>
       </c>
-      <c r="R75" s="13">
+      <c r="R76" s="13">
         <f t="shared" si="42"/>
         <v>0.12460287888048738</v>
       </c>
-      <c r="S75" s="13">
+      <c r="S76" s="13">
         <f t="shared" si="42"/>
         <v>0.12186050987216812</v>
       </c>
-      <c r="T75" s="13">
+      <c r="T76" s="13">
         <f t="shared" si="42"/>
         <v>0.11932479350828551</v>
       </c>
-      <c r="U75" s="13">
+      <c r="U76" s="13">
         <f t="shared" si="42"/>
         <v>0.11744554233288307</v>
       </c>
-      <c r="V75" s="13">
+      <c r="V76" s="13">
         <f t="shared" si="42"/>
         <v>0.11677717898342155</v>
       </c>
-      <c r="W75" s="13">
+      <c r="W76" s="13">
         <f t="shared" si="42"/>
         <v>0.11612286402214878</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X76" s="13">
         <f t="shared" si="42"/>
         <v>0.11731839871209138</v>
       </c>
-      <c r="Y75" s="13">
+      <c r="Y76" s="13">
         <f t="shared" si="42"/>
         <v>0.11559931205328366</v>
       </c>
-      <c r="Z75" s="13">
+      <c r="Z76" s="13">
         <f t="shared" si="42"/>
         <v>0.11407030304169696</v>
       </c>
-      <c r="AA75" s="13">
+      <c r="AA76" s="13">
         <f t="shared" si="42"/>
         <v>0.1145326707718064</v>
       </c>
-      <c r="AB75" s="13">
+      <c r="AB76" s="13">
         <f t="shared" si="42"/>
         <v>0.11467198357289332</v>
       </c>
-      <c r="AC75" s="13">
-        <f>AC73/(Q73+SUM(R67:AC67))-1</f>
+      <c r="AC76" s="13">
+        <f>AC74/(Q74+SUM(R68:AC68))-1</f>
         <v>0.11473728771381242</v>
       </c>
-      <c r="AD75" s="13">
-        <f>AD73/(R73+SUM(S67:AD67))-1</f>
+      <c r="AD76" s="13">
+        <f>AD74/(R74+SUM(S68:AD68))-1</f>
         <v>0.11773673924464978</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="AB76" s="13"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.45">
       <c r="AB77" s="13"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A78" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB78" s="13"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="1">
+        <f>D60-D68</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" ref="E79:AB79" si="43">E60-E68</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D80">
+        <f>D79</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <f>D80*(1+E75+$C80/12)+E79</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" ref="F80:AB80" si="44">E80*(1+F75+$C80/12)+F79</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:28" x14ac:dyDescent="0.45">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
